--- a/Meetings/200908_caGrid_Developer_F2F/caGrid_RFEs.xlsx
+++ b/Meetings/200908_caGrid_Developer_F2F/caGrid_RFEs.xlsx
@@ -19,122 +19,501 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="172">
+  <si>
+    <t>Document: avoid use of java keywords in UML model and XSD</t>
+  </si>
+  <si>
+    <t>Support for optional statistics gathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementation of Common Testing between Grid and SDK</t>
+  </si>
+  <si>
+    <t>Proxy Framework and XML serialization integration in Grid Service</t>
+  </si>
+  <si>
+    <t>Investigate adding Alternate name and description to metadata</t>
+  </si>
+  <si>
+    <t>Develop UI for creating and managing sync descriptions and syncing with the trust fabric</t>
+  </si>
+  <si>
+    <t>Modify Dorian to validate that all Idenity Providers certificates are signed by a trusted certificate authority</t>
+  </si>
+  <si>
+    <t>Need a &amp;quot;way&amp;quot; to programmatically constrain services from publishing on the &amp;quot;production&amp;quot; caGrid</t>
+  </si>
+  <si>
+    <t>DCQL (FQP) should support query modifiers</t>
+  </si>
+  <si>
+    <t>Investigate adding support for processing abstract types in both query and return</t>
+  </si>
+  <si>
+    <t>Enhanced Workflow and Cluster Leveraging Software/Tools</t>
+  </si>
+  <si>
+    <t>CQL/DCQL does not allow associations to target object to be returned</t>
+  </si>
+  <si>
+    <t>Specify additional allowable CQL Predicate value datatypes</t>
+  </si>
+  <si>
+    <t>Print out information about target grid</t>
+  </si>
+  <si>
+    <t>Support for queries using classes with self association</t>
+  </si>
+  <si>
+    <t>Sachin Lale</t>
+  </si>
+  <si>
+    <t>Conditions on aggregate data</t>
+  </si>
+  <si>
+    <t>GridGrouper should provide a way for a user to request to be added to a (non-opt in) group</t>
+  </si>
+  <si>
+    <t>Grid Grouper</t>
+  </si>
+  <si>
+    <t>Index Service should validate Service Metadata upon registration</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Investigate how to best model dependencies which come from GLOBUS_LOCATION in Ivy build</t>
+  </si>
+  <si>
+    <t>ivy support for introduce-created projects</t>
+  </si>
+  <si>
+    <t>Service Deploy should use md5sum for overwrite/delete</t>
+  </si>
+  <si>
+    <t>Investigate use of digital signatures for service metadata</t>
+  </si>
+  <si>
+    <t>Introduce Software Update needs re-engineered</t>
+  </si>
+  <si>
+    <t>Introduce extension for creating cagrid core services</t>
+  </si>
+  <si>
+    <t>Dorian's main page on the wiki is outdated; doesn't mention host identity management</t>
+  </si>
+  <si>
+    <t>Create an Installer</t>
+  </si>
+  <si>
+    <t>Update Build Process</t>
+  </si>
+  <si>
+    <t>Change the way schemas are loaded and resolved by introduce.</t>
+  </si>
+  <si>
+    <t>caGrid 2.0</t>
+  </si>
+  <si>
+    <t>SyncGTS</t>
+  </si>
+  <si>
+    <t>Dorian should validate emails for new registrations</t>
+  </si>
+  <si>
+    <t>Manav Kher</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Data Services to support a standard Query and return via caGrid Transfer</t>
+  </si>
+  <si>
+    <t>David Ervin</t>
+  </si>
+  <si>
+    <t>Support in Introduce for refactoring</t>
+  </si>
+  <si>
+    <t>Save work if network error encountered</t>
+  </si>
+  <si>
+    <t>Allow full directory browsing</t>
+  </si>
+  <si>
+    <t>MULTIPLE REQUESTS: need to be broken up</t>
+  </si>
+  <si>
+    <t>Allow users to add NCIt concepts to service classes: Service, Operation, Fault</t>
+  </si>
+  <si>
+    <t>Security UI should have a graphical trust report</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Unattended installation</t>
+  </si>
+  <si>
+    <t>Grid Grouper to allow &amp;quot;read only&amp;quot; view of groups containing a specific user</t>
+  </si>
+  <si>
+    <t>Dorian IDP registration needs metadata or operation to indicate registration requirements</t>
+  </si>
+  <si>
+    <t>Need an integration test which uses and verifies custom serialization</t>
+  </si>
+  <si>
+    <t>GTS needs integration tests</t>
+  </si>
+  <si>
+    <t>Grid Trust Service (GTS)</t>
+  </si>
+  <si>
+    <t>Need workflow integration tests</t>
+  </si>
+  <si>
+    <t>Ravi Madduri</t>
+  </si>
+  <si>
+    <t>BPEL Workflow</t>
+  </si>
+  <si>
+    <t>System Integration tests need extensive cleanup</t>
+  </si>
+  <si>
+    <t>Grid Grouper integration test is brittle</t>
+  </si>
+  <si>
+    <t>SyncGTS needs to use service property for sync description</t>
+  </si>
+  <si>
+    <t>Investigate what existing CDE/data types we can/should reuse in metadata</t>
+  </si>
+  <si>
+    <t>Review / Clarify Error Messages</t>
+  </si>
+  <si>
+    <t>GAARDS UI</t>
+  </si>
+  <si>
+    <t>Introduce shouldn't touch files it isn't changing</t>
+  </si>
+  <si>
+    <t>Grid-based Policy Enforcement</t>
+  </si>
+  <si>
+    <t>Ability to discover Terminology Services (and their metadata)</t>
+  </si>
+  <si>
+    <t>Ability to create Terminology Services within Introduce and deploy to grid</t>
+  </si>
+  <si>
+    <t>Add support to resource property helper for client side authorization.</t>
+  </si>
+  <si>
+    <t>Transfer Service Extension needs to add service metadata.</t>
+  </si>
+  <si>
+    <t>Transfer Service</t>
+  </si>
+  <si>
+    <t>Document UI changes to ja-sig CAS</t>
+  </si>
+  <si>
+    <t>CQL - allow subclass specification</t>
+  </si>
+  <si>
+    <t>Add mechanism to set CASTGC  age to same time limit as users credentials</t>
+  </si>
+  <si>
+    <t>caGrid 1.2</t>
+  </si>
+  <si>
+    <t>caGrid Transfer should have its data model registered in caDSR</t>
+  </si>
+  <si>
+    <t>Transfer Service Needs Standard Metadata</t>
+  </si>
+  <si>
+    <t>eval and close as fix or won't fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work on installer?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consider for 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>still valid? Really seems like is a domain specific thing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4/?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3/1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>considered in cql2… close as fix or wont fix accordingly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval and close as fix or won't fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolve with discussions from SDK team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK Web SSO Integration</t>
+  </si>
+  <si>
+    <t>XMI Reader API Integration in Introduce</t>
+  </si>
+  <si>
+    <t>Intelligent Authentication Routing (&amp;quot;Where are you from?&amp;quot;)</t>
+  </si>
+  <si>
+    <t>Administrator Interface for WebSSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support separate delegation policies per application or per application group </t>
+  </si>
+  <si>
+    <t>Latest Integration Ivy Repository posted nightly</t>
+  </si>
+  <si>
+    <t>Documentation: Support for 'decimal type'</t>
+  </si>
+  <si>
+    <t>GME should provide a validate capability to validate a given XML document conforms to schemas that are stored in the GME</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>GME should support the ability to associate arbitrary metadata or annotations with its schemas</t>
+  </si>
+  <si>
+    <t>Create reusable administration process for adding roles or admins to users to core services</t>
+  </si>
+  <si>
+    <t>artifact_id</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>open_date</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>assigned_to_name</t>
+  </si>
+  <si>
+    <t>submitter_name</t>
+  </si>
+  <si>
+    <t>last_modified_date</t>
+  </si>
+  <si>
+    <t>Target Product</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Introduce deploy targets deploys old build artifacts</t>
+  </si>
+  <si>
+    <t>Nobody</t>
+  </si>
+  <si>
+    <t>Justin Permar</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>caGrid 1.3</t>
+  </si>
+  <si>
+    <t>Introduce</t>
+  </si>
+  <si>
+    <t>caGrid installer should be installation-agnostic (used for installing a Grid container)</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>Pass the ServiceInformation object into the NamespaceTypeDiscoveryComponent class</t>
+  </si>
+  <si>
+    <t>Joe George</t>
+  </si>
+  <si>
+    <t>Unspecified Future Version</t>
+  </si>
+  <si>
+    <t>prototype on Shibboleth</t>
+  </si>
+  <si>
+    <t>Santhosh Garmilla</t>
+  </si>
+  <si>
+    <t>WebSSO</t>
+  </si>
+  <si>
+    <t>filter for WebSSO Client to  retrieve  user groups</t>
+  </si>
+  <si>
+    <t>soulwing CAS  client</t>
+  </si>
+  <si>
+    <t>SAML message communication WebSSO and WebSSO clients</t>
+  </si>
+  <si>
+    <t>SyncGTS to update Java Truststore</t>
+  </si>
+  <si>
+    <t>Stephen Langella</t>
+  </si>
+  <si>
+    <t>Kunal Modi</t>
+  </si>
   <si>
     <t>not currently in CQL2… should it be?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>in CQL2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>close or in CQl2?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>resolve with discussions from SDK team (XMI reader was deemed not appropriate for use in 1.3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.4?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assign to KC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.4?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.4/2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2.0?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>should try to address with new introduce ivy build process (i.e. make there less changes required)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.3/1.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>no longer valid?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>fixed in 1.3?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>?/2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KC stats work</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2.0?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>installer work being done?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>close</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assign to KC to make new RFEs for those still valid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>model supports, cadsr/evs/cabig do not</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.4?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>close or target for 2.0 if we "redo" metadata</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>close or consider for 2.0 if we "redo" metadata</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>waiting on "policy" which we need to enforce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>no policy needed, as hasn't come up?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Data Services</t>
@@ -192,427 +571,19 @@
   </si>
   <si>
     <t>Target</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval and close as fix or won't fix</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>work on installer?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>consider for 2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>still valid? Really seems like is a domain specific thing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4/?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>considered in cql2… close as fix or wont fix accordingly</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval and close as fix or won't fix</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Too vague</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolve with discussions from SDK team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK Web SSO Integration</t>
-  </si>
-  <si>
-    <t>XMI Reader API Integration in Introduce</t>
-  </si>
-  <si>
-    <t>Intelligent Authentication Routing (&amp;quot;Where are you from?&amp;quot;)</t>
-  </si>
-  <si>
-    <t>Administrator Interface for WebSSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support separate delegation policies per application or per application group </t>
-  </si>
-  <si>
-    <t>Latest Integration Ivy Repository posted nightly</t>
-  </si>
-  <si>
-    <t>Documentation: Support for 'decimal type'</t>
-  </si>
-  <si>
-    <t>GME should provide a validate capability to validate a given XML document conforms to schemas that are stored in the GME</t>
-  </si>
-  <si>
-    <t>GME</t>
-  </si>
-  <si>
-    <t>GME should support the ability to associate arbitrary metadata or annotations with its schemas</t>
-  </si>
-  <si>
-    <t>Create reusable administration process for adding roles or admins to users to core services</t>
-  </si>
-  <si>
-    <t>artifact_id</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>open_date</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>assigned_to_name</t>
-  </si>
-  <si>
-    <t>submitter_name</t>
-  </si>
-  <si>
-    <t>last_modified_date</t>
-  </si>
-  <si>
-    <t>Target Product</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Introduce deploy targets deploys old build artifacts</t>
-  </si>
-  <si>
-    <t>Nobody</t>
-  </si>
-  <si>
-    <t>Justin Permar</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>caGrid 1.3</t>
-  </si>
-  <si>
-    <t>Introduce</t>
-  </si>
-  <si>
-    <t>caGrid installer should be installation-agnostic (used for installing a Grid container)</t>
-  </si>
-  <si>
-    <t>Installer</t>
-  </si>
-  <si>
-    <t>Pass the ServiceInformation object into the NamespaceTypeDiscoveryComponent class</t>
-  </si>
-  <si>
-    <t>Joe George</t>
-  </si>
-  <si>
-    <t>Unspecified Future Version</t>
-  </si>
-  <si>
-    <t>prototype on Shibboleth</t>
-  </si>
-  <si>
-    <t>Santhosh Garmilla</t>
-  </si>
-  <si>
-    <t>WebSSO</t>
-  </si>
-  <si>
-    <t>filter for WebSSO Client to  retrieve  user groups</t>
-  </si>
-  <si>
-    <t>soulwing CAS  client</t>
-  </si>
-  <si>
-    <t>SAML message communication WebSSO and WebSSO clients</t>
-  </si>
-  <si>
-    <t>SyncGTS to update Java Truststore</t>
-  </si>
-  <si>
-    <t>Stephen Langella</t>
-  </si>
-  <si>
-    <t>Kunal Modi</t>
-  </si>
-  <si>
-    <t>caGrid 2.0</t>
-  </si>
-  <si>
-    <t>SyncGTS</t>
-  </si>
-  <si>
-    <t>Dorian should validate emails for new registrations</t>
-  </si>
-  <si>
-    <t>Manav Kher</t>
-  </si>
-  <si>
-    <t>Dorian</t>
-  </si>
-  <si>
-    <t>Data Services to support a standard Query and return via caGrid Transfer</t>
-  </si>
-  <si>
-    <t>David Ervin</t>
-  </si>
-  <si>
-    <t>Support in Introduce for refactoring</t>
-  </si>
-  <si>
-    <t>Save work if network error encountered</t>
-  </si>
-  <si>
-    <t>Allow full directory browsing</t>
-  </si>
-  <si>
-    <t>MULTIPLE REQUESTS: need to be broken up</t>
-  </si>
-  <si>
-    <t>Allow users to add NCIt concepts to service classes: Service, Operation, Fault</t>
-  </si>
-  <si>
-    <t>Security UI should have a graphical trust report</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Unattended installation</t>
-  </si>
-  <si>
-    <t>Grid Grouper to allow &amp;quot;read only&amp;quot; view of groups containing a specific user</t>
-  </si>
-  <si>
-    <t>Dorian IDP registration needs metadata or operation to indicate registration requirements</t>
-  </si>
-  <si>
-    <t>Need an integration test which uses and verifies custom serialization</t>
-  </si>
-  <si>
-    <t>GTS needs integration tests</t>
-  </si>
-  <si>
-    <t>Grid Trust Service (GTS)</t>
-  </si>
-  <si>
-    <t>Need workflow integration tests</t>
-  </si>
-  <si>
-    <t>Ravi Madduri</t>
-  </si>
-  <si>
-    <t>BPEL Workflow</t>
-  </si>
-  <si>
-    <t>System Integration tests need extensive cleanup</t>
-  </si>
-  <si>
-    <t>Grid Grouper integration test is brittle</t>
-  </si>
-  <si>
-    <t>SyncGTS needs to use service property for sync description</t>
-  </si>
-  <si>
-    <t>Investigate what existing CDE/data types we can/should reuse in metadata</t>
-  </si>
-  <si>
-    <t>Review / Clarify Error Messages</t>
-  </si>
-  <si>
-    <t>GAARDS UI</t>
-  </si>
-  <si>
-    <t>Introduce shouldn't touch files it isn't changing</t>
-  </si>
-  <si>
-    <t>Grid-based Policy Enforcement</t>
-  </si>
-  <si>
-    <t>Ability to discover Terminology Services (and their metadata)</t>
-  </si>
-  <si>
-    <t>Ability to create Terminology Services within Introduce and deploy to grid</t>
-  </si>
-  <si>
-    <t>Add support to resource property helper for client side authorization.</t>
-  </si>
-  <si>
-    <t>Transfer Service Extension needs to add service metadata.</t>
-  </si>
-  <si>
-    <t>Transfer Service</t>
-  </si>
-  <si>
-    <t>Document UI changes to ja-sig CAS</t>
-  </si>
-  <si>
-    <t>CQL - allow subclass specification</t>
-  </si>
-  <si>
-    <t>Add mechanism to set CASTGC  age to same time limit as users credentials</t>
-  </si>
-  <si>
-    <t>caGrid 1.2</t>
-  </si>
-  <si>
-    <t>caGrid Transfer should have its data model registered in caDSR</t>
-  </si>
-  <si>
-    <t>Transfer Service Needs Standard Metadata</t>
-  </si>
-  <si>
-    <t>Identify modeling gaps/requirements for the analytical/data service</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Implementation of Common Testing between Grid and SDK</t>
-  </si>
-  <si>
-    <t>Proxy Framework and XML serialization integration in Grid Service</t>
-  </si>
-  <si>
-    <t>Investigate adding Alternate name and description to metadata</t>
-  </si>
-  <si>
-    <t>Develop UI for creating and managing sync descriptions and syncing with the trust fabric</t>
-  </si>
-  <si>
-    <t>Modify Dorian to validate that all Idenity Providers certificates are signed by a trusted certificate authority</t>
-  </si>
-  <si>
-    <t>Need a &amp;quot;way&amp;quot; to programmatically constrain services from publishing on the &amp;quot;production&amp;quot; caGrid</t>
-  </si>
-  <si>
-    <t>DCQL (FQP) should support query modifiers</t>
-  </si>
-  <si>
-    <t>Need to determine whether some policy is needed for use of type derivation/substitution on the grid</t>
-  </si>
-  <si>
-    <t>Investigate adding support for processing abstract types in both query and return</t>
-  </si>
-  <si>
-    <t>Enhanced Workflow and Cluster Leveraging Software/Tools</t>
-  </si>
-  <si>
-    <t>CQL/DCQL does not allow associations to target object to be returned</t>
-  </si>
-  <si>
-    <t>Specify additional allowable CQL Predicate value datatypes</t>
-  </si>
-  <si>
-    <t>Print out information about target grid</t>
-  </si>
-  <si>
-    <t>Support for queries using classes with self association</t>
-  </si>
-  <si>
-    <t>Sachin Lale</t>
-  </si>
-  <si>
-    <t>Conditions on aggregate data</t>
-  </si>
-  <si>
-    <t>GridGrouper should provide a way for a user to request to be added to a (non-opt in) group</t>
-  </si>
-  <si>
-    <t>Grid Grouper</t>
-  </si>
-  <si>
-    <t>Index Service should validate Service Metadata upon registration</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>Investigate how to best model dependencies which come from GLOBUS_LOCATION in Ivy build</t>
-  </si>
-  <si>
-    <t>ivy support for introduce-created projects</t>
-  </si>
-  <si>
-    <t>Service Deploy should use md5sum for overwrite/delete</t>
-  </si>
-  <si>
-    <t>Investigate use of digital signatures for service metadata</t>
-  </si>
-  <si>
-    <t>Introduce Software Update needs re-engineered</t>
-  </si>
-  <si>
-    <t>Introduce extension for creating cagrid core services</t>
-  </si>
-  <si>
-    <t>Dorian's main page on the wiki is outdated; doesn't mention host identity management</t>
-  </si>
-  <si>
-    <t>Create an Installer</t>
-  </si>
-  <si>
-    <t>Update Build Process</t>
-  </si>
-  <si>
-    <t>Change the way schemas are loaded and resolved by introduce.</t>
-  </si>
-  <si>
-    <t>Document: avoid use of java keywords in UML model and XSD</t>
-  </si>
-  <si>
-    <t>Support for optional statistics gathering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -646,12 +617,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,10 +951,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1000,37 +969,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1038,7 +1007,7 @@
         <v>22174</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1">
         <v>38539.580555555556</v>
@@ -1047,25 +1016,25 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1">
         <v>38539.580555555556</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>1.4</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1073,7 +1042,7 @@
         <v>21656</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1">
         <v>38511.806944444441</v>
@@ -1082,22 +1051,22 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1">
         <v>38511.806944444441</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1105,7 +1074,7 @@
         <v>21615</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1">
         <v>38510.848611111112</v>
@@ -1114,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1">
         <v>38510.848611111112</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>1.4</v>
@@ -1137,7 +1106,7 @@
         <v>21125</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1">
         <v>38475.849305555559</v>
@@ -1146,19 +1115,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1">
         <v>38475.849305555559</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K5">
         <v>1.4</v>
@@ -1169,7 +1138,7 @@
         <v>21123</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1">
         <v>38475.845138888886</v>
@@ -1178,22 +1147,22 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1">
         <v>38475.845138888886</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1201,7 +1170,7 @@
         <v>21122</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
         <v>38475.84375</v>
@@ -1210,22 +1179,22 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1">
         <v>38475.84652777778</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1233,7 +1202,7 @@
         <v>21121</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1">
         <v>38475.840277777781</v>
@@ -1242,22 +1211,22 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1">
         <v>38475.840277777781</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1265,7 +1234,7 @@
         <v>20815</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1">
         <v>38458.835416666669</v>
@@ -1274,19 +1243,19 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1">
         <v>38458.835416666669</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1297,7 +1266,7 @@
         <v>20763</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>38457.597222222219</v>
@@ -1306,19 +1275,19 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1">
         <v>38457.597222222219</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>1.4</v>
@@ -1329,7 +1298,7 @@
         <v>20527</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>38448.811111111114</v>
@@ -1338,19 +1307,19 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
         <v>38448.811111111114</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="K11">
         <v>1.4</v>
@@ -1361,7 +1330,7 @@
         <v>20411</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1">
         <v>38443.874305555553</v>
@@ -1370,19 +1339,19 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1">
         <v>38443.874305555553</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K12">
         <v>1.4</v>
@@ -1393,7 +1362,7 @@
         <v>20401</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1">
         <v>38443.797222222223</v>
@@ -1402,19 +1371,19 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
         <v>38443.797222222223</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1425,7 +1394,7 @@
         <v>20396</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1">
         <v>38443.718055555553</v>
@@ -1434,19 +1403,19 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1">
         <v>38443.718055555553</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1457,7 +1426,7 @@
         <v>20395</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1">
         <v>38443.712500000001</v>
@@ -1466,22 +1435,22 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="G15" s="1">
         <v>38443.712500000001</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1489,7 +1458,7 @@
         <v>20322</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1">
         <v>38441.050694444442</v>
@@ -1498,19 +1467,19 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="G16" s="1">
         <v>38441.051388888889</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>1.4</v>
@@ -1521,7 +1490,7 @@
         <v>20288</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1">
         <v>38437.915277777778</v>
@@ -1530,19 +1499,19 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G17" s="1">
         <v>38437.915277777778</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -1553,7 +1522,7 @@
         <v>20286</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1">
         <v>38437.904166666667</v>
@@ -1562,19 +1531,19 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1">
         <v>38437.904166666667</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>1.4</v>
@@ -1585,7 +1554,7 @@
         <v>20252</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1">
         <v>38437.856249999997</v>
@@ -1594,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1">
         <v>38437.856249999997</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1617,7 +1586,7 @@
         <v>20251</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1">
         <v>38437.855555555558</v>
@@ -1626,22 +1595,22 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1">
         <v>38437.855555555558</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1649,7 +1618,7 @@
         <v>20249</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1">
         <v>38437.854861111111</v>
@@ -1658,22 +1627,22 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1">
         <v>38437.854861111111</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1681,7 +1650,7 @@
         <v>20248</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>38437.854166666664</v>
@@ -1690,22 +1659,22 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G22" s="1">
         <v>38437.854166666664</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1713,7 +1682,7 @@
         <v>20246</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1">
         <v>38437.852777777778</v>
@@ -1722,25 +1691,25 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1">
         <v>38437.852777777778</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1748,7 +1717,7 @@
         <v>20245</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1">
         <v>38437.852083333331</v>
@@ -1757,22 +1726,22 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1">
         <v>38437.852083333331</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1780,7 +1749,7 @@
         <v>20242</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1">
         <v>38437.849305555559</v>
@@ -1789,25 +1758,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G25" s="1">
         <v>38437.849305555559</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1815,7 +1784,7 @@
         <v>20241</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>38437.84097222222</v>
@@ -1824,25 +1793,25 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1">
         <v>38437.84097222222</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1850,7 +1819,7 @@
         <v>20237</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1">
         <v>38437.837500000001</v>
@@ -1859,22 +1828,22 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G27" s="1">
         <v>38437.837500000001</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1882,7 +1851,7 @@
         <v>20233</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
         <v>38437.824999999997</v>
@@ -1891,22 +1860,22 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1">
         <v>38437.824999999997</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1914,7 +1883,7 @@
         <v>20229</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>38437.822916666664</v>
@@ -1923,22 +1892,22 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G29" s="1">
         <v>38437.822916666664</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1946,7 +1915,7 @@
         <v>20228</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1">
         <v>38437.822222222225</v>
@@ -1955,25 +1924,25 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G30" s="1">
         <v>38437.822222222225</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="K30">
         <v>1.4</v>
       </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1981,7 +1950,7 @@
         <v>20227</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1">
         <v>38437.821527777778</v>
@@ -1990,25 +1959,25 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G31" s="1">
         <v>38437.821527777778</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K31">
         <v>1.4</v>
       </c>
       <c r="L31" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2016,7 +1985,7 @@
         <v>20225</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>38437.820138888892</v>
@@ -2025,22 +1994,22 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G32" s="1">
         <v>38437.820138888892</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2048,7 +2017,7 @@
         <v>20224</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
         <v>38437.819444444445</v>
@@ -2057,94 +2026,97 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G33" s="1">
         <v>38437.819444444445</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1">
-      <c r="A34" s="3">
-        <v>20222</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>20221</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
         <v>38437.818055555559</v>
       </c>
-      <c r="D34" s="3">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="1">
         <v>38437.818055555559</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>60</v>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34">
+        <v>1.4</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>20221</v>
+        <v>20220</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>38437.818055555559</v>
+        <v>38437.817361111112</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G35" s="1">
-        <v>38437.818055555559</v>
+        <v>38437.817361111112</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="K35">
         <v>1.4</v>
       </c>
+      <c r="L35" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>20220</v>
+        <v>20219</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1">
         <v>38437.817361111112</v>
@@ -2153,100 +2125,97 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G36" s="1">
         <v>38437.817361111112</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36">
-        <v>1.4</v>
-      </c>
-      <c r="L36" t="s">
-        <v>61</v>
+        <v>118</v>
+      </c>
+      <c r="K36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>20219</v>
+        <v>20217</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1">
-        <v>38437.817361111112</v>
+        <v>38437.815972222219</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G37" s="1">
-        <v>38437.817361111112</v>
+        <v>38437.815972222219</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" t="s">
-        <v>51</v>
+        <v>152</v>
+      </c>
+      <c r="K37">
+        <v>1.4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>20217</v>
+        <v>20213</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1">
-        <v>38437.815972222219</v>
+        <v>38437.813194444447</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G38" s="1">
-        <v>38437.815972222219</v>
+        <v>38437.813194444447</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38">
-        <v>1.4</v>
-      </c>
-      <c r="L38" t="s">
-        <v>3</v>
+        <v>118</v>
+      </c>
+      <c r="K38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>20213</v>
+        <v>20212</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1">
         <v>38437.813194444447</v>
@@ -2255,752 +2224,755 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G39" s="1">
         <v>38437.813194444447</v>
       </c>
       <c r="H39" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>20212</v>
+        <v>20207</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
-        <v>38437.813194444447</v>
+        <v>38437.798611111109</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G40" s="1">
-        <v>38437.813194444447</v>
+        <v>38437.798611111109</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>20207</v>
+        <v>20197</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1">
-        <v>38437.798611111109</v>
+        <v>38437.792361111111</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G41" s="1">
-        <v>38437.798611111109</v>
+        <v>38437.792361111111</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
-      </c>
-      <c r="K41" t="s">
-        <v>51</v>
+        <v>162</v>
+      </c>
+      <c r="K41">
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>20197</v>
+        <v>20191</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
-        <v>38437.792361111111</v>
+        <v>38437.718055555553</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G42" s="1">
-        <v>38437.792361111111</v>
+        <v>38437.718055555553</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42">
-        <v>1.4</v>
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L42" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>20191</v>
+        <v>20190</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
-        <v>38437.718055555553</v>
+        <v>38437.717361111114</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G43" s="1">
-        <v>38437.718055555553</v>
+        <v>38437.717361111114</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>20190</v>
+        <v>20189</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1">
-        <v>38437.717361111114</v>
+        <v>38437.714583333334</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G44" s="1">
-        <v>38437.717361111114</v>
+        <v>38437.714583333334</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>20189</v>
+        <v>20183</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C45" s="1">
-        <v>38437.714583333334</v>
+        <v>38437.705555555556</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G45" s="1">
-        <v>38437.714583333334</v>
+        <v>38437.705555555556</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>20183</v>
+        <v>20182</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
-        <v>38437.705555555556</v>
+        <v>38437.704861111109</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G46" s="1">
-        <v>38437.705555555556</v>
+        <v>38437.704861111109</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>20182</v>
+        <v>20181</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1">
-        <v>38437.704861111109</v>
+        <v>38437.70416666667</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G47" s="1">
-        <v>38437.704861111109</v>
+        <v>38437.70416666667</v>
       </c>
       <c r="H47" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>20181</v>
+        <v>20180</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>38437.70416666667</v>
+        <v>38437.703472222223</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G48" s="1">
-        <v>38437.70416666667</v>
+        <v>38437.703472222223</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K48" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>20180</v>
+        <v>20117</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1">
-        <v>38437.703472222223</v>
+        <v>38433.997916666667</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G49" s="1">
-        <v>38437.703472222223</v>
+        <v>38433.997916666667</v>
       </c>
       <c r="H49" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>20117</v>
+        <v>20116</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>38433.997916666667</v>
+        <v>38433.996527777781</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G50" s="1">
-        <v>38433.997916666667</v>
+        <v>38433.996527777781</v>
       </c>
       <c r="H50" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="K50" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>20116</v>
+        <v>20115</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1">
-        <v>38433.996527777781</v>
+        <v>38433.995833333334</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G51" s="1">
-        <v>38433.996527777781</v>
+        <v>38433.995833333334</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>20115</v>
+        <v>20114</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
-        <v>38433.995833333334</v>
+        <v>38433.995138888888</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G52" s="1">
-        <v>38433.995833333334</v>
+        <v>38433.995138888888</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>20114</v>
+        <v>20113</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
-        <v>38433.995138888888</v>
+        <v>38433.994444444441</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G53" s="1">
-        <v>38433.995138888888</v>
+        <v>38433.994444444441</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K53" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="L53" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>20113</v>
+        <v>20112</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1">
-        <v>38433.994444444441</v>
+        <v>38433.993750000001</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G54" s="1">
-        <v>38433.994444444441</v>
+        <v>38433.993750000001</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>20112</v>
+        <v>20108</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1">
-        <v>38433.993750000001</v>
+        <v>38433.991666666669</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G55" s="1">
-        <v>38433.993750000001</v>
+        <v>38433.991666666669</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K55" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="L55" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>20108</v>
+        <v>20107</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1">
-        <v>38433.991666666669</v>
+        <v>38433.990972222222</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G56" s="1">
-        <v>38433.991666666669</v>
+        <v>38433.990972222222</v>
       </c>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
-      </c>
-      <c r="K56" t="s">
-        <v>51</v>
+        <v>118</v>
+      </c>
+      <c r="K56">
+        <v>1.4</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>20107</v>
+        <v>20105</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
-        <v>38433.990972222222</v>
+        <v>38433.989583333336</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G57" s="1">
-        <v>38433.990972222222</v>
+        <v>38433.989583333336</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I57" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
-      </c>
-      <c r="L57" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>20105</v>
+        <v>20104</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>38433.989583333336</v>
+        <v>38433.988888888889</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G58" s="1">
-        <v>38433.989583333336</v>
+        <v>38433.988888888889</v>
       </c>
       <c r="H58" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K58">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="K58" t="s">
+        <v>136</v>
+      </c>
+      <c r="L58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>20104</v>
+        <v>20103</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>38433.988888888889</v>
+        <v>38433.988194444442</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G59" s="1">
-        <v>38433.988888888889</v>
+        <v>38433.988194444442</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="K59" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>20103</v>
+        <v>20101</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1">
-        <v>38433.988194444442</v>
+        <v>38433.986111111109</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G60" s="1">
-        <v>38433.988194444442</v>
+        <v>38433.986111111109</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="K60" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>20101</v>
+        <v>20100</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1">
-        <v>38433.986111111109</v>
+        <v>38433.98541666667</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G61" s="1">
-        <v>38433.986111111109</v>
+        <v>38433.98541666667</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
+        <v>132</v>
+      </c>
+      <c r="L61" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>20100</v>
+        <v>20099</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1">
         <v>38433.98541666667</v>
@@ -3009,319 +2981,316 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G62" s="1">
         <v>38433.98541666667</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="K62" t="s">
-        <v>7</v>
-      </c>
-      <c r="L62" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>20099</v>
+        <v>20098</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
-        <v>38433.98541666667</v>
+        <v>38433.984722222223</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G63" s="1">
-        <v>38433.98541666667</v>
+        <v>38433.984722222223</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K63" t="s">
-        <v>4</v>
+        <v>143</v>
+      </c>
+      <c r="L63" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>20098</v>
+        <v>20097</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C64" s="1">
-        <v>38433.984722222223</v>
+        <v>38433.982638888891</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G64" s="1">
-        <v>38433.984722222223</v>
+        <v>38433.982638888891</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I64" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="L64" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>20097</v>
+        <v>20096</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1">
-        <v>38433.982638888891</v>
+        <v>38433.981944444444</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G65" s="1">
-        <v>38433.982638888891</v>
+        <v>38433.981944444444</v>
       </c>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I65" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>20096</v>
+        <v>20095</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C66" s="1">
-        <v>38433.981944444444</v>
+        <v>38433.981249999997</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G66" s="1">
-        <v>38433.981944444444</v>
+        <v>38433.981249999997</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>147</v>
+      </c>
+      <c r="L66" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>20095</v>
+        <v>20094</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C67" s="1">
-        <v>38433.981249999997</v>
+        <v>38433.980555555558</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G67" s="1">
-        <v>38433.981249999997</v>
+        <v>38433.980555555558</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>20094</v>
+        <v>20093</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C68" s="1">
-        <v>38433.980555555558</v>
+        <v>38433.979861111111</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G68" s="1">
-        <v>38433.980555555558</v>
+        <v>38433.979861111111</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="K68" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>20093</v>
+        <v>20092</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C69" s="1">
-        <v>38433.979861111111</v>
+        <v>38433.979166666664</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G69" s="1">
-        <v>38433.979861111111</v>
+        <v>38433.979166666664</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>20092</v>
+        <v>20091</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C70" s="1">
-        <v>38433.979166666664</v>
+        <v>38433.978472222225</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G70" s="1">
-        <v>38433.979166666664</v>
+        <v>38433.978472222225</v>
       </c>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
-      </c>
-      <c r="K70" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="K70">
+        <v>1.4</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>20091</v>
+        <v>20090</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C71" s="1">
-        <v>38433.978472222225</v>
+        <v>38433.977777777778</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G71" s="1">
-        <v>38433.978472222225</v>
+        <v>38433.977777777778</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I71" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="K71">
         <v>1.4</v>
@@ -3329,95 +3298,95 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>20090</v>
+        <v>20089</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C72" s="1">
-        <v>38433.977777777778</v>
+        <v>38433.977083333331</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G72" s="1">
-        <v>38433.977777777778</v>
+        <v>38433.977083333331</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I72" t="s">
-        <v>124</v>
-      </c>
-      <c r="K72">
-        <v>1.4</v>
+        <v>108</v>
+      </c>
+      <c r="K72" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>20089</v>
+        <v>20088</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C73" s="1">
-        <v>38433.977083333331</v>
+        <v>38433.976388888892</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G73" s="1">
-        <v>38433.977083333331</v>
+        <v>38433.976388888892</v>
       </c>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <v>1.4</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>20088</v>
+        <v>20087</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C74" s="1">
-        <v>38433.976388888892</v>
+        <v>38433.974999999999</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G74" s="1">
-        <v>38433.976388888892</v>
+        <v>38433.974999999999</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I74" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="K74">
         <v>1.4</v>
@@ -3425,512 +3394,444 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>20087</v>
+        <v>20086</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C75" s="1">
-        <v>38433.974999999999</v>
+        <v>38433.972222222219</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G75" s="1">
-        <v>38433.974999999999</v>
+        <v>38433.972222222219</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-      <c r="K75">
-        <v>1.4</v>
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+      <c r="L75" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>20086</v>
+        <v>20002</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>38433.972222222219</v>
+        <v>38428.881944444445</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G76" s="1">
-        <v>38433.972222222219</v>
+        <v>38428.881944444445</v>
       </c>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I76" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>20002</v>
+        <v>20000</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>38428.881944444445</v>
+        <v>38428.880555555559</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G77" s="1">
-        <v>38428.881944444445</v>
+        <v>38428.880555555559</v>
       </c>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I77" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="K77" t="s">
-        <v>51</v>
-      </c>
-      <c r="L77" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>20000</v>
+        <v>19999</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
         <v>38428.880555555559</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G78" s="1">
         <v>38428.880555555559</v>
       </c>
       <c r="H78" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="K78" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>19999</v>
+        <v>19998</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
-        <v>38428.880555555559</v>
+        <v>38428.879861111112</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G79" s="1">
-        <v>38428.880555555559</v>
+        <v>38428.879861111112</v>
       </c>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="K79" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="L79" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>19998</v>
+        <v>19997</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>38428.879861111112</v>
+        <v>38428.879166666666</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G80" s="1">
-        <v>38428.879861111112</v>
+        <v>38428.879166666666</v>
       </c>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
-      </c>
-      <c r="K80" t="s">
-        <v>51</v>
-      </c>
-      <c r="L80" t="s">
-        <v>26</v>
+        <v>152</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>19997</v>
+        <v>19994</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1">
-        <v>38428.879166666666</v>
+        <v>38428.877083333333</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G81" s="1">
-        <v>38428.879166666666</v>
+        <v>38428.877083333333</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
-      </c>
-      <c r="K81">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="K81" t="s">
+        <v>75</v>
+      </c>
+      <c r="L81" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>19995</v>
+        <v>19993</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1">
-        <v>38428.87777777778</v>
+        <v>38428.876388888886</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G82" s="1">
-        <v>38428.87777777778</v>
+        <v>38428.876388888886</v>
       </c>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K82" t="s">
-        <v>27</v>
-      </c>
-      <c r="L82" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>19994</v>
+        <v>19992</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1">
-        <v>38428.877083333333</v>
+        <v>38428.851388888892</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" s="1">
+        <v>38428.851388888892</v>
+      </c>
+      <c r="H83" t="s">
+        <v>115</v>
+      </c>
+      <c r="I83" t="s">
         <v>108</v>
       </c>
-      <c r="F83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="1">
-        <v>38428.877083333333</v>
-      </c>
-      <c r="H83" t="s">
-        <v>92</v>
-      </c>
-      <c r="I83" t="s">
-        <v>29</v>
-      </c>
       <c r="K83" t="s">
-        <v>51</v>
-      </c>
-      <c r="L83" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>19993</v>
+        <v>19990</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1">
-        <v>38428.876388888886</v>
+        <v>38428.847916666666</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="G84" s="1">
-        <v>38428.876388888886</v>
+        <v>38428.847916666666</v>
       </c>
       <c r="H84" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I84" t="s">
-        <v>85</v>
-      </c>
-      <c r="K84" t="s">
-        <v>7</v>
+        <v>152</v>
+      </c>
+      <c r="K84">
+        <v>1.4</v>
+      </c>
+      <c r="L84" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>19992</v>
+        <v>19379</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="C85" s="1">
-        <v>38428.851388888892</v>
+        <v>38394.956250000003</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
       <c r="E85" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="1">
+        <v>38435.717361111114</v>
+      </c>
+      <c r="H85" t="s">
         <v>108</v>
       </c>
-      <c r="F85" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85" s="1">
-        <v>38428.851388888892</v>
-      </c>
-      <c r="H85" t="s">
-        <v>92</v>
-      </c>
       <c r="I85" t="s">
-        <v>85</v>
-      </c>
-      <c r="K85" t="s">
-        <v>51</v>
+        <v>108</v>
+      </c>
+      <c r="K85">
+        <v>1.4</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>19990</v>
+        <v>19270</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1">
-        <v>38428.847916666666</v>
+        <v>38392.415972222225</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="1">
+        <v>38435.71875</v>
+      </c>
+      <c r="H86" t="s">
         <v>108</v>
       </c>
-      <c r="F86" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="1">
-        <v>38428.847916666666</v>
-      </c>
-      <c r="H86" t="s">
-        <v>92</v>
-      </c>
       <c r="I86" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86">
-        <v>1.4</v>
+        <v>108</v>
+      </c>
+      <c r="K86" t="s">
+        <v>132</v>
       </c>
       <c r="L86" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>19379</v>
+        <v>19268</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C87" s="1">
-        <v>38394.956250000003</v>
+        <v>38392.354166666664</v>
       </c>
       <c r="D87">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="G87" s="1">
-        <v>38435.717361111114</v>
+        <v>38433.711111111108</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>85</v>
-      </c>
-      <c r="K87">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88">
-        <v>19270</v>
-      </c>
-      <c r="B88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="1">
-        <v>38392.415972222225</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="E88" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" t="s">
-        <v>159</v>
-      </c>
-      <c r="G88" s="1">
-        <v>38435.71875</v>
-      </c>
-      <c r="H88" t="s">
-        <v>85</v>
-      </c>
-      <c r="I88" t="s">
-        <v>85</v>
-      </c>
-      <c r="K88" t="s">
-        <v>7</v>
-      </c>
-      <c r="L88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89">
-        <v>19268</v>
-      </c>
-      <c r="B89" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="1">
-        <v>38392.354166666664</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" t="s">
-        <v>159</v>
-      </c>
-      <c r="G89" s="1">
-        <v>38433.711111111108</v>
-      </c>
-      <c r="H89" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89" t="s">
-        <v>85</v>
-      </c>
-      <c r="K89" t="s">
-        <v>7</v>
-      </c>
-      <c r="L89" t="s">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="K87" t="s">
+        <v>132</v>
+      </c>
+      <c r="L87" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Meetings/200908_caGrid_Developer_F2F/caGrid_RFEs.xlsx
+++ b/Meetings/200908_caGrid_Developer_F2F/caGrid_RFEs.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="33600" windowHeight="23340" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="caGrid_RFEs.csv" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'caGrid_RFEs.csv'!$A$1:$K$87</definedName>
+  </definedNames>
   <calcPr calcId="130406" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -19,7 +22,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="185">
+  <si>
+    <t>Introduce Software Update needs re-engineered</t>
+  </si>
+  <si>
+    <t>Introduce extension for creating cagrid core services</t>
+  </si>
+  <si>
+    <t>Dorian's main page on the wiki is outdated; doesn't mention host identity management</t>
+  </si>
+  <si>
+    <t>Create an Installer</t>
+  </si>
+  <si>
+    <t>Update Build Process</t>
+  </si>
+  <si>
+    <t>Change the way schemas are loaded and resolved by introduce.</t>
+  </si>
+  <si>
+    <t>caGrid 2.0</t>
+  </si>
+  <si>
+    <t>SyncGTS</t>
+  </si>
+  <si>
+    <t>Dorian should validate emails for new registrations</t>
+  </si>
+  <si>
+    <t>Document UI changes to ja-sig CAS</t>
+  </si>
+  <si>
+    <t>CQL - allow subclass specification</t>
+  </si>
+  <si>
+    <t>Add mechanism to set CASTGC  age to same time limit as users credentials</t>
+  </si>
+  <si>
+    <t>caGrid 1.2</t>
+  </si>
+  <si>
+    <t>caGrid Transfer should have its data model registered in caDSR</t>
+  </si>
+  <si>
+    <t>Transfer Service Needs Standard Metadata</t>
+  </si>
+  <si>
+    <t>eval and close as fix or won't fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work on installer?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Document: avoid use of java keywords in UML model and XSD</t>
   </si>
@@ -69,182 +133,426 @@
     <t>Sachin Lale</t>
   </si>
   <si>
+    <t>GridGrouper should provide a way for a user to request to be added to a (non-opt in) group</t>
+  </si>
+  <si>
+    <t>Grid Grouper</t>
+  </si>
+  <si>
+    <t>Index Service should validate Service Metadata upon registration</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Investigate how to best model dependencies which come from GLOBUS_LOCATION in Ivy build</t>
+  </si>
+  <si>
+    <t>ivy support for introduce-created projects</t>
+  </si>
+  <si>
+    <t>Service Deploy should use md5sum for overwrite/delete</t>
+  </si>
+  <si>
+    <t>Investigate use of digital signatures for service metadata</t>
+  </si>
+  <si>
+    <t>caGrid 1.3</t>
+  </si>
+  <si>
+    <t>Introduce</t>
+  </si>
+  <si>
+    <t>caGrid installer should be installation-agnostic (used for installing a Grid container)</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>Pass the ServiceInformation object into the NamespaceTypeDiscoveryComponent class</t>
+  </si>
+  <si>
+    <t>Joe George</t>
+  </si>
+  <si>
+    <t>Unspecified Future Version</t>
+  </si>
+  <si>
+    <t>prototype on Shibboleth</t>
+  </si>
+  <si>
+    <t>Santhosh Garmilla</t>
+  </si>
+  <si>
+    <t>WebSSO</t>
+  </si>
+  <si>
+    <t>filter for WebSSO Client to  retrieve  user groups</t>
+  </si>
+  <si>
+    <t>soulwing CAS  client</t>
+  </si>
+  <si>
+    <t>SAML message communication WebSSO and WebSSO clients</t>
+  </si>
+  <si>
+    <t>SyncGTS to update Java Truststore</t>
+  </si>
+  <si>
+    <t>Stephen Langella</t>
+  </si>
+  <si>
+    <t>Kunal Modi</t>
+  </si>
+  <si>
+    <t>not currently in CQL2… should it be?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in CQL2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close or in CQl2?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manav Kher</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Data Services to support a standard Query and return via caGrid Transfer</t>
+  </si>
+  <si>
+    <t>David Ervin</t>
+  </si>
+  <si>
+    <t>Support in Introduce for refactoring</t>
+  </si>
+  <si>
+    <t>Save work if network error encountered</t>
+  </si>
+  <si>
+    <t>Allow full directory browsing</t>
+  </si>
+  <si>
+    <t>MULTIPLE REQUESTS: need to be broken up</t>
+  </si>
+  <si>
+    <t>Allow users to add NCIt concepts to service classes: Service, Operation, Fault</t>
+  </si>
+  <si>
+    <t>Security UI should have a graphical trust report</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Unattended installation</t>
+  </si>
+  <si>
+    <t>Grid Grouper to allow &amp;quot;read only&amp;quot; view of groups containing a specific user</t>
+  </si>
+  <si>
+    <t>Need an integration test which uses and verifies custom serialization</t>
+  </si>
+  <si>
+    <t>GTS needs integration tests</t>
+  </si>
+  <si>
+    <t>Grid Trust Service (GTS)</t>
+  </si>
+  <si>
+    <t>Need workflow integration tests</t>
+  </si>
+  <si>
+    <t>Ravi Madduri</t>
+  </si>
+  <si>
+    <t>BPEL Workflow</t>
+  </si>
+  <si>
+    <t>System Integration tests need extensive cleanup</t>
+  </si>
+  <si>
+    <t>Grid Grouper integration test is brittle</t>
+  </si>
+  <si>
+    <t>SyncGTS needs to use service property for sync description</t>
+  </si>
+  <si>
+    <t>Investigate what existing CDE/data types we can/should reuse in metadata</t>
+  </si>
+  <si>
+    <t>Review / Clarify Error Messages</t>
+  </si>
+  <si>
+    <t>GAARDS UI</t>
+  </si>
+  <si>
+    <t>Introduce shouldn't touch files it isn't changing</t>
+  </si>
+  <si>
+    <t>Grid-based Policy Enforcement</t>
+  </si>
+  <si>
+    <t>Add support to resource property helper for client side authorization.</t>
+  </si>
+  <si>
+    <t>Transfer Service Extension needs to add service metadata.</t>
+  </si>
+  <si>
+    <t>Transfer Service</t>
+  </si>
+  <si>
+    <t>Make gov.nih.nci.cagrid.common.FaultHelper more usable (ref: cagrid-1-2\caGrid\projects\core)</t>
+  </si>
+  <si>
+    <t>Steve Matyas</t>
+  </si>
+  <si>
+    <t>Ability to Display Current Target Grid Information</t>
+  </si>
+  <si>
+    <t>John Eisenschmidt</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Introduce Metadata Editor should allow editing of grid service version</t>
+  </si>
+  <si>
+    <t>Shannon Hastings</t>
+  </si>
+  <si>
+    <t>Authentication Service to have a Web Front End</t>
+  </si>
+  <si>
+    <t>Authentication Service</t>
+  </si>
+  <si>
+    <t>Dorian (when used as an IdP) should provide a webapp for registration</t>
+  </si>
+  <si>
+    <t>Create system tests for checking backwards compatibility</t>
+  </si>
+  <si>
+    <t>Scott Oster</t>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usability in general</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability to discover Terminology Services (and their metadata)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consider for 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>still valid? Really seems like is a domain specific thing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4/?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3/1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>considered in cql2… close as fix or wont fix accordingly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval and close as fix or won't fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolve with discussions from SDK team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK Web SSO Integration</t>
+  </si>
+  <si>
+    <t>XMI Reader API Integration in Introduce</t>
+  </si>
+  <si>
+    <t>Intelligent Authentication Routing (&amp;quot;Where are you from?&amp;quot;)</t>
+  </si>
+  <si>
+    <t>Administrator Interface for WebSSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support separate delegation policies per application or per application group </t>
+  </si>
+  <si>
+    <t>Latest Integration Ivy Repository posted nightly</t>
+  </si>
+  <si>
+    <t>Documentation: Support for 'decimal type'</t>
+  </si>
+  <si>
+    <t>GME should provide a validate capability to validate a given XML document conforms to schemas that are stored in the GME</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>GME should support the ability to associate arbitrary metadata or annotations with its schemas</t>
+  </si>
+  <si>
+    <t>Create reusable administration process for adding roles or admins to users to core services</t>
+  </si>
+  <si>
+    <t>artifact_id</t>
+  </si>
+  <si>
+    <t>open_date</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>assigned_to_name</t>
+  </si>
+  <si>
+    <t>submitter_name</t>
+  </si>
+  <si>
+    <t>last_modified_date</t>
+  </si>
+  <si>
+    <t>Target Product</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Introduce deploy targets deploys old build artifacts</t>
+  </si>
+  <si>
+    <t>Nobody</t>
+  </si>
+  <si>
+    <t>Justin Permar</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Conditions on aggregate data</t>
-  </si>
-  <si>
-    <t>GridGrouper should provide a way for a user to request to be added to a (non-opt in) group</t>
-  </si>
-  <si>
-    <t>Grid Grouper</t>
-  </si>
-  <si>
-    <t>Index Service should validate Service Metadata upon registration</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>Investigate how to best model dependencies which come from GLOBUS_LOCATION in Ivy build</t>
-  </si>
-  <si>
-    <t>ivy support for introduce-created projects</t>
-  </si>
-  <si>
-    <t>Service Deploy should use md5sum for overwrite/delete</t>
-  </si>
-  <si>
-    <t>Investigate use of digital signatures for service metadata</t>
-  </si>
-  <si>
-    <t>Introduce Software Update needs re-engineered</t>
-  </si>
-  <si>
-    <t>Introduce extension for creating cagrid core services</t>
-  </si>
-  <si>
-    <t>Dorian's main page on the wiki is outdated; doesn't mention host identity management</t>
-  </si>
-  <si>
-    <t>Create an Installer</t>
-  </si>
-  <si>
-    <t>Update Build Process</t>
-  </si>
-  <si>
-    <t>Change the way schemas are loaded and resolved by introduce.</t>
-  </si>
-  <si>
-    <t>caGrid 2.0</t>
-  </si>
-  <si>
-    <t>SyncGTS</t>
-  </si>
-  <si>
-    <t>Dorian should validate emails for new registrations</t>
-  </si>
-  <si>
-    <t>Manav Kher</t>
-  </si>
-  <si>
-    <t>Dorian</t>
-  </si>
-  <si>
-    <t>Data Services to support a standard Query and return via caGrid Transfer</t>
-  </si>
-  <si>
-    <t>David Ervin</t>
-  </si>
-  <si>
-    <t>Support in Introduce for refactoring</t>
-  </si>
-  <si>
-    <t>Save work if network error encountered</t>
-  </si>
-  <si>
-    <t>Allow full directory browsing</t>
-  </si>
-  <si>
-    <t>MULTIPLE REQUESTS: need to be broken up</t>
-  </si>
-  <si>
-    <t>Allow users to add NCIt concepts to service classes: Service, Operation, Fault</t>
-  </si>
-  <si>
-    <t>Security UI should have a graphical trust report</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Unattended installation</t>
-  </si>
-  <si>
-    <t>Grid Grouper to allow &amp;quot;read only&amp;quot; view of groups containing a specific user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability to create Terminology Services within Introduce and deploy to grid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimally need to put the place for it</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>how is this different from 28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standardized authorization patterns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIRN is looking at GG, has the ability to do this (non GG)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part of policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>part of policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is still valid?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>still valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JMX? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model supports, cadsr/evs/cabig do not</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>still valid? Fix or close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dorian IDP registration needs metadata or operation to indicate registration requirements</t>
-  </si>
-  <si>
-    <t>Need an integration test which uses and verifies custom serialization</t>
-  </si>
-  <si>
-    <t>GTS needs integration tests</t>
-  </si>
-  <si>
-    <t>Grid Trust Service (GTS)</t>
-  </si>
-  <si>
-    <t>Need workflow integration tests</t>
-  </si>
-  <si>
-    <t>Ravi Madduri</t>
-  </si>
-  <si>
-    <t>BPEL Workflow</t>
-  </si>
-  <si>
-    <t>System Integration tests need extensive cleanup</t>
-  </si>
-  <si>
-    <t>Grid Grouper integration test is brittle</t>
-  </si>
-  <si>
-    <t>SyncGTS needs to use service property for sync description</t>
-  </si>
-  <si>
-    <t>Investigate what existing CDE/data types we can/should reuse in metadata</t>
-  </si>
-  <si>
-    <t>Review / Clarify Error Messages</t>
-  </si>
-  <si>
-    <t>GAARDS UI</t>
-  </si>
-  <si>
-    <t>Introduce shouldn't touch files it isn't changing</t>
-  </si>
-  <si>
-    <t>Grid-based Policy Enforcement</t>
-  </si>
-  <si>
-    <t>Ability to discover Terminology Services (and their metadata)</t>
-  </si>
-  <si>
-    <t>Ability to create Terminology Services within Introduce and deploy to grid</t>
-  </si>
-  <si>
-    <t>Add support to resource property helper for client side authorization.</t>
-  </si>
-  <si>
-    <t>Transfer Service Extension needs to add service metadata.</t>
-  </si>
-  <si>
-    <t>Transfer Service</t>
-  </si>
-  <si>
-    <t>Document UI changes to ja-sig CAS</t>
-  </si>
-  <si>
-    <t>CQL - allow subclass specification</t>
-  </si>
-  <si>
-    <t>Add mechanism to set CASTGC  age to same time limit as users credentials</t>
-  </si>
-  <si>
-    <t>caGrid 1.2</t>
-  </si>
-  <si>
-    <t>caGrid Transfer should have its data model registered in caDSR</t>
-  </si>
-  <si>
-    <t>Transfer Service Needs Standard Metadata</t>
-  </si>
-  <si>
-    <t>eval and close as fix or won't fix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work on installer?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as graphical view (or should be)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcql2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cql2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolve with discussions from SDK team (XMI reader was deemed not appropriate for use in 1.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign to KC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -252,258 +560,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.4/2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>should try to address with new introduce ivy build process (i.e. make there less changes required)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3/1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no longer valid?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed in 1.3?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>installer work being done?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign to KC to make new RFEs for those still valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consider for 2.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>still valid? Really seems like is a domain specific thing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4/?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>considered in cql2… close as fix or wont fix accordingly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval and close as fix or won't fix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolve with discussions from SDK team</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK Web SSO Integration</t>
-  </si>
-  <si>
-    <t>XMI Reader API Integration in Introduce</t>
-  </si>
-  <si>
-    <t>Intelligent Authentication Routing (&amp;quot;Where are you from?&amp;quot;)</t>
-  </si>
-  <si>
-    <t>Administrator Interface for WebSSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support separate delegation policies per application or per application group </t>
-  </si>
-  <si>
-    <t>Latest Integration Ivy Repository posted nightly</t>
-  </si>
-  <si>
-    <t>Documentation: Support for 'decimal type'</t>
-  </si>
-  <si>
-    <t>GME should provide a validate capability to validate a given XML document conforms to schemas that are stored in the GME</t>
-  </si>
-  <si>
-    <t>GME</t>
-  </si>
-  <si>
-    <t>GME should support the ability to associate arbitrary metadata or annotations with its schemas</t>
-  </si>
-  <si>
-    <t>Create reusable administration process for adding roles or admins to users to core services</t>
-  </si>
-  <si>
-    <t>artifact_id</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>open_date</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>assigned_to_name</t>
-  </si>
-  <si>
-    <t>submitter_name</t>
-  </si>
-  <si>
-    <t>last_modified_date</t>
-  </si>
-  <si>
-    <t>Target Product</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Introduce deploy targets deploys old build artifacts</t>
-  </si>
-  <si>
-    <t>Nobody</t>
-  </si>
-  <si>
-    <t>Justin Permar</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>caGrid 1.3</t>
-  </si>
-  <si>
-    <t>Introduce</t>
-  </si>
-  <si>
-    <t>caGrid installer should be installation-agnostic (used for installing a Grid container)</t>
-  </si>
-  <si>
-    <t>Installer</t>
-  </si>
-  <si>
-    <t>Pass the ServiceInformation object into the NamespaceTypeDiscoveryComponent class</t>
-  </si>
-  <si>
-    <t>Joe George</t>
-  </si>
-  <si>
-    <t>Unspecified Future Version</t>
-  </si>
-  <si>
-    <t>prototype on Shibboleth</t>
-  </si>
-  <si>
-    <t>Santhosh Garmilla</t>
-  </si>
-  <si>
-    <t>WebSSO</t>
-  </si>
-  <si>
-    <t>filter for WebSSO Client to  retrieve  user groups</t>
-  </si>
-  <si>
-    <t>soulwing CAS  client</t>
-  </si>
-  <si>
-    <t>SAML message communication WebSSO and WebSSO clients</t>
-  </si>
-  <si>
-    <t>SyncGTS to update Java Truststore</t>
-  </si>
-  <si>
-    <t>Stephen Langella</t>
-  </si>
-  <si>
-    <t>Kunal Modi</t>
-  </si>
-  <si>
-    <t>not currently in CQL2… should it be?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>in CQL2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close or in CQl2?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolve with discussions from SDK team (XMI reader was deemed not appropriate for use in 1.3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.4?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>assign to KC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4/2.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>should try to address with new introduce ivy build process (i.e. make there less changes required)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no longer valid?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed in 1.3?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?/2.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KC stats work</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>installer work being done?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assign to KC to make new RFEs for those still valid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>model supports, cadsr/evs/cabig do not</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>close or target for 2.0 if we "redo" metadata</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -532,50 +636,6 @@
   </si>
   <si>
     <t>Standardized mechanism for Create, Update and Delete for grid enabled data services</t>
-  </si>
-  <si>
-    <t>Make gov.nih.nci.cagrid.common.FaultHelper more usable (ref: cagrid-1-2\caGrid\projects\core)</t>
-  </si>
-  <si>
-    <t>Steve Matyas</t>
-  </si>
-  <si>
-    <t>Ability to Display Current Target Grid Information</t>
-  </si>
-  <si>
-    <t>John Eisenschmidt</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Introduce Metadata Editor should allow editing of grid service version</t>
-  </si>
-  <si>
-    <t>Shannon Hastings</t>
-  </si>
-  <si>
-    <t>Authentication Service to have a Web Front End</t>
-  </si>
-  <si>
-    <t>Authentication Service</t>
-  </si>
-  <si>
-    <t>Dorian (when used as an IdP) should provide a webapp for registration</t>
-  </si>
-  <si>
-    <t>Create system tests for checking backwards compatibility</t>
-  </si>
-  <si>
-    <t>Scott Oster</t>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -951,63 +1011,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="80.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>104</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>22174</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1">
         <v>38539.580555555556</v>
@@ -1016,33 +1080,33 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1">
         <v>38539.580555555556</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2">
+        <v>44</v>
+      </c>
+      <c r="J2">
         <v>1.4</v>
       </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>21656</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>38511.806944444441</v>
@@ -1051,30 +1115,30 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1">
         <v>38511.806944444441</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>21615</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>38510.848611111112</v>
@@ -1083,30 +1147,30 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1">
         <v>38510.848611111112</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="J4">
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>21125</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>38475.849305555559</v>
@@ -1115,30 +1179,30 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1">
         <v>38475.849305555559</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5">
+        <v>52</v>
+      </c>
+      <c r="J5">
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>21123</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>38475.845138888886</v>
@@ -1147,30 +1211,30 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1">
         <v>38475.845138888886</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>21122</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>38475.84375</v>
@@ -1179,30 +1243,30 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1">
         <v>38475.84652777778</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>21121</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>38475.840277777781</v>
@@ -1211,30 +1275,30 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1">
         <v>38475.840277777781</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>20815</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>38458.835416666669</v>
@@ -1243,30 +1307,30 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1">
         <v>38458.835416666669</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20763</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>38457.597222222219</v>
@@ -1275,30 +1339,30 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>38457.597222222219</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10">
+        <v>63</v>
+      </c>
+      <c r="J10">
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>20527</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
         <v>38448.811111111114</v>
@@ -1307,30 +1371,30 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
         <v>38448.811111111114</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11">
+        <v>179</v>
+      </c>
+      <c r="J11">
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>20411</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1">
         <v>38443.874305555553</v>
@@ -1339,30 +1403,30 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1">
         <v>38443.874305555553</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12">
+        <v>52</v>
+      </c>
+      <c r="J12">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>20401</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1">
         <v>38443.797222222223</v>
@@ -1371,30 +1435,30 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1">
         <v>38443.797222222223</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13">
+        <v>52</v>
+      </c>
+      <c r="J13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>20396</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1">
         <v>38443.718055555553</v>
@@ -1403,30 +1467,30 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="G14" s="1">
         <v>38443.718055555553</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14">
+        <v>138</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>20395</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1">
         <v>38443.712500000001</v>
@@ -1435,30 +1499,30 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="G15" s="1">
         <v>38443.712500000001</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>20322</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1">
         <v>38441.050694444442</v>
@@ -1467,30 +1531,30 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1">
         <v>38441.051388888889</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16">
+        <v>138</v>
+      </c>
+      <c r="J16">
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>20288</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1">
         <v>38437.915277777778</v>
@@ -1499,30 +1563,30 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1">
         <v>38437.915277777778</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17">
+        <v>96</v>
+      </c>
+      <c r="J17">
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>20286</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1">
         <v>38437.904166666667</v>
@@ -1531,30 +1595,30 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G18" s="1">
         <v>38437.904166666667</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18">
+        <v>44</v>
+      </c>
+      <c r="J18">
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>20252</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1">
         <v>38437.856249999997</v>
@@ -1563,30 +1627,30 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G19" s="1">
         <v>38437.856249999997</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>20251</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1">
         <v>38437.855555555558</v>
@@ -1595,30 +1659,30 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
         <v>38437.855555555558</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>63</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20249</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1">
         <v>38437.854861111111</v>
@@ -1627,30 +1691,30 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G21" s="1">
         <v>38437.854861111111</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20248</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1">
         <v>38437.854166666664</v>
@@ -1659,30 +1723,33 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G22" s="1">
         <v>38437.854166666664</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20246</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>38437.852777777778</v>
@@ -1691,33 +1758,33 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1">
         <v>38437.852777777778</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>20245</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1">
         <v>38437.852083333331</v>
@@ -1726,30 +1793,30 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G24" s="1">
         <v>38437.852083333331</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>20242</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1">
         <v>38437.849305555559</v>
@@ -1758,33 +1825,33 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G25" s="1">
         <v>38437.849305555559</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>20241</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1">
         <v>38437.84097222222</v>
@@ -1793,33 +1860,33 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G26" s="1">
         <v>38437.84097222222</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
         <v>110</v>
       </c>
-      <c r="K26" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>20237</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1">
         <v>38437.837500000001</v>
@@ -1828,30 +1895,30 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G27" s="1">
         <v>38437.837500000001</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="J27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>20233</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1">
         <v>38437.824999999997</v>
@@ -1860,30 +1927,33 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1">
         <v>38437.824999999997</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>91</v>
+      </c>
+      <c r="J28">
+        <v>1.4</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>20229</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>38437.822916666664</v>
@@ -1892,30 +1962,30 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1">
         <v>38437.822916666664</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>20228</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>38437.822222222225</v>
@@ -1924,33 +1994,33 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G30" s="1">
         <v>38437.822222222225</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
-      </c>
-      <c r="K30">
+        <v>179</v>
+      </c>
+      <c r="J30">
         <v>1.4</v>
       </c>
-      <c r="L30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>20227</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>38437.821527777778</v>
@@ -1959,33 +2029,33 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G31" s="1">
         <v>38437.821527777778</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31">
+        <v>52</v>
+      </c>
+      <c r="J31">
         <v>1.4</v>
       </c>
-      <c r="L31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>20225</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1">
         <v>38437.820138888892</v>
@@ -1994,30 +2064,30 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1">
         <v>38437.820138888892</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>91</v>
+      </c>
+      <c r="J32">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>20224</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>38437.819444444445</v>
@@ -2026,30 +2096,33 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G33" s="1">
         <v>38437.819444444445</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>20221</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1">
         <v>38437.818055555559</v>
@@ -2058,30 +2131,30 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G34" s="1">
         <v>38437.818055555559</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
-      </c>
-      <c r="K34">
+        <v>179</v>
+      </c>
+      <c r="J34">
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>20220</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1">
         <v>38437.817361111112</v>
@@ -2090,33 +2163,33 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G35" s="1">
         <v>38437.817361111112</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>152</v>
-      </c>
-      <c r="K35">
+        <v>179</v>
+      </c>
+      <c r="J35">
         <v>1.4</v>
       </c>
-      <c r="L35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="K35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>20219</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1">
         <v>38437.817361111112</v>
@@ -2125,30 +2198,30 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G36" s="1">
         <v>38437.817361111112</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
-      </c>
-      <c r="K36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>20217</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1">
         <v>38437.815972222219</v>
@@ -2157,33 +2230,33 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G37" s="1">
         <v>38437.815972222219</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
-      </c>
-      <c r="K37">
+        <v>179</v>
+      </c>
+      <c r="J37">
         <v>1.4</v>
       </c>
-      <c r="L37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="K37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>20213</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1">
         <v>38437.813194444447</v>
@@ -2192,30 +2265,30 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G38" s="1">
         <v>38437.813194444447</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
-      </c>
-      <c r="K38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>20212</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1">
         <v>38437.813194444447</v>
@@ -2224,30 +2297,30 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1">
         <v>38437.813194444447</v>
       </c>
       <c r="H39" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>20207</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1">
         <v>38437.798611111109</v>
@@ -2256,30 +2329,30 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1">
         <v>38437.798611111109</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="K40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>20197</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1">
         <v>38437.792361111111</v>
@@ -2288,30 +2361,30 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G41" s="1">
         <v>38437.792361111111</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
-      </c>
-      <c r="K41">
+        <v>96</v>
+      </c>
+      <c r="J41">
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>20191</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1">
         <v>38437.718055555553</v>
@@ -2320,33 +2393,33 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1">
         <v>38437.718055555553</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="J42" t="s">
+        <v>112</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>20190</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1">
         <v>38437.717361111114</v>
@@ -2355,30 +2428,30 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G43" s="1">
         <v>38437.717361111114</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
-      </c>
-      <c r="K43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="J43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>20189</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1">
         <v>38437.714583333334</v>
@@ -2387,30 +2460,30 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G44" s="1">
         <v>38437.714583333334</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
-      </c>
-      <c r="K44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="J44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>20183</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1">
         <v>38437.705555555556</v>
@@ -2419,30 +2492,33 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G45" s="1">
         <v>38437.705555555556</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="J45" t="s">
+        <v>144</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>20182</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
         <v>38437.704861111109</v>
@@ -2451,30 +2527,33 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G46" s="1">
         <v>38437.704861111109</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="J46" t="s">
+        <v>164</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>20181</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1">
         <v>38437.70416666667</v>
@@ -2483,30 +2562,33 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G47" s="1">
         <v>38437.70416666667</v>
       </c>
       <c r="H47" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="J47" t="s">
+        <v>163</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>20180</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
         <v>38437.703472222223</v>
@@ -2515,30 +2597,30 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G48" s="1">
         <v>38437.703472222223</v>
       </c>
       <c r="H48" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
-      </c>
-      <c r="K48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="J48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>20117</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
         <v>38433.997916666667</v>
@@ -2547,30 +2629,30 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G49" s="1">
         <v>38433.997916666667</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
-      </c>
-      <c r="K49">
+        <v>44</v>
+      </c>
+      <c r="J49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>20116</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1">
         <v>38433.996527777781</v>
@@ -2579,30 +2661,30 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G50" s="1">
         <v>38433.996527777781</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
-      </c>
-      <c r="K50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>20115</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1">
         <v>38433.995833333334</v>
@@ -2611,30 +2693,33 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G51" s="1">
         <v>38433.995833333334</v>
       </c>
       <c r="H51" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>20114</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
         <v>38433.995138888888</v>
@@ -2643,30 +2728,33 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1">
         <v>38433.995138888888</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="J52" t="s">
+        <v>165</v>
       </c>
       <c r="K52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>20113</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
         <v>38433.994444444441</v>
@@ -2675,33 +2763,33 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G53" s="1">
         <v>38433.994444444441</v>
       </c>
       <c r="H53" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="J53" t="s">
+        <v>165</v>
       </c>
       <c r="K53" t="s">
-        <v>134</v>
-      </c>
-      <c r="L53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>20112</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
         <v>38433.993750000001</v>
@@ -2710,30 +2798,33 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1">
         <v>38433.993750000001</v>
       </c>
       <c r="H54" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="J54" t="s">
+        <v>167</v>
       </c>
       <c r="K54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>20108</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
         <v>38433.991666666669</v>
@@ -2742,33 +2833,33 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G55" s="1">
         <v>38433.991666666669</v>
       </c>
       <c r="H55" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>20107</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
         <v>38433.990972222222</v>
@@ -2777,33 +2868,33 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G56" s="1">
         <v>38433.990972222222</v>
       </c>
       <c r="H56" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
-      </c>
-      <c r="K56">
+        <v>52</v>
+      </c>
+      <c r="J56">
         <v>1.4</v>
       </c>
-      <c r="L56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="K56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>20105</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>38433.989583333336</v>
@@ -2812,30 +2903,30 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G57" s="1">
         <v>38433.989583333336</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
-      </c>
-      <c r="K57">
+        <v>44</v>
+      </c>
+      <c r="J57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>20104</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
         <v>38433.988888888889</v>
@@ -2844,33 +2935,33 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G58" s="1">
         <v>38433.988888888889</v>
       </c>
       <c r="H58" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="J58" t="s">
+        <v>167</v>
       </c>
       <c r="K58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>20103</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
         <v>38433.988194444442</v>
@@ -2879,33 +2970,33 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G59" s="1">
         <v>38433.988194444442</v>
       </c>
       <c r="H59" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
-      </c>
-      <c r="L59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>20101</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1">
         <v>38433.986111111109</v>
@@ -2914,30 +3005,30 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G60" s="1">
         <v>38433.986111111109</v>
       </c>
       <c r="H60" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
-      </c>
-      <c r="K60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>20100</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C61" s="1">
         <v>38433.98541666667</v>
@@ -2946,33 +3037,33 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G61" s="1">
         <v>38433.98541666667</v>
       </c>
       <c r="H61" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I61" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="J61" t="s">
+        <v>163</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
-      </c>
-      <c r="L61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>20099</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1">
         <v>38433.98541666667</v>
@@ -2981,30 +3072,33 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G62" s="1">
         <v>38433.98541666667</v>
       </c>
       <c r="H62" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="J62">
+        <v>1.4</v>
       </c>
       <c r="K62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>20098</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C63" s="1">
         <v>38433.984722222223</v>
@@ -3013,33 +3107,33 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G63" s="1">
         <v>38433.984722222223</v>
       </c>
       <c r="H63" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="J63" t="s">
+        <v>172</v>
       </c>
       <c r="K63" t="s">
-        <v>143</v>
-      </c>
-      <c r="L63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>20097</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1">
         <v>38433.982638888891</v>
@@ -3048,33 +3142,33 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F64" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G64" s="1">
         <v>38433.982638888891</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>145</v>
-      </c>
-      <c r="L64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>20096</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1">
         <v>38433.981944444444</v>
@@ -3083,30 +3177,30 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G65" s="1">
         <v>38433.981944444444</v>
       </c>
       <c r="H65" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>20095</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1">
         <v>38433.981249999997</v>
@@ -3115,33 +3209,33 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G66" s="1">
         <v>38433.981249999997</v>
       </c>
       <c r="H66" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>174</v>
       </c>
       <c r="K66" t="s">
-        <v>147</v>
-      </c>
-      <c r="L66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>20094</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C67" s="1">
         <v>38433.980555555558</v>
@@ -3150,30 +3244,30 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G67" s="1">
         <v>38433.980555555558</v>
       </c>
       <c r="H67" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="J67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>20093</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1">
         <v>38433.979861111111</v>
@@ -3182,30 +3276,30 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F68" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G68" s="1">
         <v>38433.979861111111</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
-      </c>
-      <c r="K68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>63</v>
+      </c>
+      <c r="J68">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>20092</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1">
         <v>38433.979166666664</v>
@@ -3214,30 +3308,30 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G69" s="1">
         <v>38433.979166666664</v>
       </c>
       <c r="H69" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s">
-        <v>162</v>
-      </c>
-      <c r="K69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="J69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>20091</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1">
         <v>38433.978472222225</v>
@@ -3246,30 +3340,30 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G70" s="1">
         <v>38433.978472222225</v>
       </c>
       <c r="H70" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
-      </c>
-      <c r="K70">
+        <v>77</v>
+      </c>
+      <c r="J70">
         <v>1.4</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>20090</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1">
         <v>38433.977777777778</v>
@@ -3278,30 +3372,30 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G71" s="1">
         <v>38433.977777777778</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71">
+        <v>80</v>
+      </c>
+      <c r="J71">
         <v>1.4</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>20089</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C72" s="1">
         <v>38433.977083333331</v>
@@ -3310,30 +3404,30 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G72" s="1">
         <v>38433.977083333331</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
-      </c>
-      <c r="K72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="J72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>20088</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1">
         <v>38433.976388888892</v>
@@ -3342,30 +3436,30 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G73" s="1">
         <v>38433.976388888892</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73">
+        <v>36</v>
+      </c>
+      <c r="J73">
         <v>1.4</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>20087</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1">
         <v>38433.974999999999</v>
@@ -3374,30 +3468,30 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G74" s="1">
         <v>38433.974999999999</v>
       </c>
       <c r="H74" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74">
+        <v>7</v>
+      </c>
+      <c r="J74">
         <v>1.4</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>20086</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C75" s="1">
         <v>38433.972222222219</v>
@@ -3406,33 +3500,33 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F75" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G75" s="1">
         <v>38433.972222222219</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
-      </c>
-      <c r="L75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>20002</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1">
         <v>38428.881944444445</v>
@@ -3441,33 +3535,33 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F76" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G76" s="1">
         <v>38428.881944444445</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>75</v>
-      </c>
-      <c r="L76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>20000</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C77" s="1">
         <v>38428.880555555559</v>
@@ -3476,30 +3570,33 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G77" s="1">
         <v>38428.880555555559</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I77" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>1.4</v>
       </c>
       <c r="K77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>19999</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1">
         <v>38428.880555555559</v>
@@ -3508,30 +3605,30 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="F78" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G78" s="1">
         <v>38428.880555555559</v>
       </c>
       <c r="H78" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I78" t="s">
-        <v>35</v>
-      </c>
-      <c r="K78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>63</v>
+      </c>
+      <c r="J78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>19998</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
         <v>38428.879861111112</v>
@@ -3540,33 +3637,33 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G79" s="1">
         <v>38428.879861111112</v>
       </c>
       <c r="H79" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>75</v>
-      </c>
-      <c r="L79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>19997</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1">
         <v>38428.879166666666</v>
@@ -3575,30 +3672,33 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G80" s="1">
         <v>38428.879166666666</v>
       </c>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I80" t="s">
-        <v>152</v>
-      </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>179</v>
+      </c>
+      <c r="J80">
+        <v>1.4</v>
+      </c>
+      <c r="K80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>19994</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C81" s="1">
         <v>38428.877083333333</v>
@@ -3607,33 +3707,33 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G81" s="1">
         <v>38428.877083333333</v>
       </c>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I81" t="s">
-        <v>152</v>
+        <v>179</v>
+      </c>
+      <c r="J81">
+        <v>1.4</v>
       </c>
       <c r="K81" t="s">
-        <v>75</v>
-      </c>
-      <c r="L81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>19993</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1">
         <v>38428.876388888886</v>
@@ -3642,30 +3742,30 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G82" s="1">
         <v>38428.876388888886</v>
       </c>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I82" t="s">
-        <v>108</v>
-      </c>
-      <c r="K82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="J82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>19992</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1">
         <v>38428.851388888892</v>
@@ -3674,30 +3774,33 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G83" s="1">
         <v>38428.851388888892</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="J83">
+        <v>1.4</v>
       </c>
       <c r="K83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>19990</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C84" s="1">
         <v>38428.847916666666</v>
@@ -3706,33 +3809,33 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="G84" s="1">
         <v>38428.847916666666</v>
       </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I84" t="s">
-        <v>152</v>
-      </c>
-      <c r="K84">
+        <v>179</v>
+      </c>
+      <c r="J84">
         <v>1.4</v>
       </c>
-      <c r="L84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="K84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>19379</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C85" s="1">
         <v>38394.956250000003</v>
@@ -3741,30 +3844,33 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G85" s="1">
         <v>38435.717361111114</v>
       </c>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I85" t="s">
-        <v>108</v>
-      </c>
-      <c r="K85">
+        <v>138</v>
+      </c>
+      <c r="J85">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="K85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>19270</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C86" s="1">
         <v>38392.415972222225</v>
@@ -3773,33 +3879,33 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G86" s="1">
         <v>38435.71875</v>
       </c>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="J86" t="s">
+        <v>163</v>
       </c>
       <c r="K86" t="s">
-        <v>132</v>
-      </c>
-      <c r="L86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>19268</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C87" s="1">
         <v>38392.354166666664</v>
@@ -3808,30 +3914,32 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G87" s="1">
         <v>38433.711111111108</v>
       </c>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I87" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="J87" t="s">
+        <v>163</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
-      </c>
-      <c r="L87" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K87"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Meetings/200908_caGrid_Developer_F2F/caGrid_RFEs.xlsx
+++ b/Meetings/200908_caGrid_Developer_F2F/caGrid_RFEs.xlsx
@@ -10,7 +10,7 @@
     <sheet name="caGrid_RFEs.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'caGrid_RFEs.csv'!$A$1:$K$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'caGrid_RFEs.csv'!$A$1:$K$83</definedName>
   </definedNames>
   <calcPr calcId="130406" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="182">
   <si>
     <t>Introduce Software Update needs re-engineered</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Dorian's main page on the wiki is outdated; doesn't mention host identity management</t>
   </si>
   <si>
-    <t>Create an Installer</t>
-  </si>
-  <si>
-    <t>Update Build Process</t>
-  </si>
-  <si>
     <t>Change the way schemas are loaded and resolved by introduce.</t>
   </si>
   <si>
@@ -51,18 +45,32 @@
     <t>Dorian should validate emails for new registrations</t>
   </si>
   <si>
+    <t>no?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incubator project: only distribute the "popular"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to do… when?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>security issue should be documented</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nice to have? Relates to below</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Document UI changes to ja-sig CAS</t>
   </si>
   <si>
     <t>CQL - allow subclass specification</t>
   </si>
   <si>
-    <t>Add mechanism to set CASTGC  age to same time limit as users credentials</t>
-  </si>
-  <si>
-    <t>caGrid 1.2</t>
-  </si>
-  <si>
     <t>caGrid Transfer should have its data model registered in caDSR</t>
   </si>
   <si>
@@ -383,17 +391,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>eval and close as fix or won't fix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resolve with discussions from SDK team</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SDK Web SSO Integration</t>
-  </si>
-  <si>
     <t>XMI Reader API Integration in Introduce</t>
   </si>
   <si>
@@ -573,14 +574,6 @@
   </si>
   <si>
     <t>1.3/1.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no longer valid?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed in 1.3?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -642,6 +635,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -1011,15 +1010,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="0.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" hidden="1" customWidth="1"/>
@@ -1033,37 +1032,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1071,7 +1070,7 @@
         <v>22174</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1">
         <v>38539.580555555556</v>
@@ -1080,25 +1079,25 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
       </c>
       <c r="G2" s="1">
         <v>38539.580555555556</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1.4</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1106,7 +1105,7 @@
         <v>21656</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>38511.806944444441</v>
@@ -1115,22 +1114,22 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
       </c>
       <c r="G3" s="1">
         <v>38511.806944444441</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1138,7 +1137,7 @@
         <v>21615</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>38510.848611111112</v>
@@ -1147,19 +1146,19 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1">
         <v>38510.848611111112</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>1.4</v>
@@ -1170,7 +1169,7 @@
         <v>21125</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>38475.849305555559</v>
@@ -1179,19 +1178,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1">
         <v>38475.849305555559</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1.4</v>
@@ -1202,7 +1201,7 @@
         <v>21123</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>38475.845138888886</v>
@@ -1211,22 +1210,22 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1">
         <v>38475.845138888886</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1234,7 +1233,7 @@
         <v>21122</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>38475.84375</v>
@@ -1243,22 +1242,22 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
         <v>38475.84652777778</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1266,7 +1265,7 @@
         <v>21121</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>38475.840277777781</v>
@@ -1275,22 +1274,25 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1">
         <v>38475.840277777781</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1298,7 +1300,7 @@
         <v>20815</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>38458.835416666669</v>
@@ -1307,19 +1309,19 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1">
         <v>38458.835416666669</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1330,7 +1332,7 @@
         <v>20763</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>38457.597222222219</v>
@@ -1339,19 +1341,19 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1">
         <v>38457.597222222219</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <v>1.4</v>
@@ -1362,7 +1364,7 @@
         <v>20527</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>38448.811111111114</v>
@@ -1371,19 +1373,19 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1">
         <v>38448.811111111114</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J11">
         <v>1.4</v>
@@ -1394,7 +1396,7 @@
         <v>20411</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="1">
         <v>38443.874305555553</v>
@@ -1403,22 +1405,25 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1">
         <v>38443.874305555553</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>1.4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1426,7 +1431,7 @@
         <v>20401</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1">
         <v>38443.797222222223</v>
@@ -1435,19 +1440,19 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1">
         <v>38443.797222222223</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.4</v>
@@ -1458,7 +1463,7 @@
         <v>20396</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1">
         <v>38443.718055555553</v>
@@ -1467,19 +1472,19 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="1">
         <v>38443.718055555553</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1490,7 +1495,7 @@
         <v>20395</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1">
         <v>38443.712500000001</v>
@@ -1499,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G15" s="1">
         <v>38443.712500000001</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1522,7 +1527,7 @@
         <v>20322</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
         <v>38441.050694444442</v>
@@ -1531,19 +1536,19 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="1">
         <v>38441.051388888889</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16">
         <v>1.4</v>
@@ -1554,7 +1559,7 @@
         <v>20288</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1">
         <v>38437.915277777778</v>
@@ -1563,19 +1568,19 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1">
         <v>38437.915277777778</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J17">
         <v>1.4</v>
@@ -1586,7 +1591,7 @@
         <v>20286</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1">
         <v>38437.904166666667</v>
@@ -1595,19 +1600,19 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="1">
         <v>38437.904166666667</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1.4</v>
@@ -1618,7 +1623,7 @@
         <v>20252</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1">
         <v>38437.856249999997</v>
@@ -1627,19 +1632,19 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1">
         <v>38437.856249999997</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1650,7 +1655,7 @@
         <v>20251</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1">
         <v>38437.855555555558</v>
@@ -1659,19 +1664,19 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="1">
         <v>38437.855555555558</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1682,7 +1687,7 @@
         <v>20249</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1">
         <v>38437.854861111111</v>
@@ -1691,22 +1696,22 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1">
         <v>38437.854861111111</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1714,7 +1719,7 @@
         <v>20248</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1">
         <v>38437.854166666664</v>
@@ -1723,25 +1728,25 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G22" s="1">
         <v>38437.854166666664</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1749,7 +1754,7 @@
         <v>20246</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1">
         <v>38437.852777777778</v>
@@ -1758,25 +1763,25 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="1">
         <v>38437.852777777778</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1784,7 +1789,7 @@
         <v>20245</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1">
         <v>38437.852083333331</v>
@@ -1793,22 +1798,22 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G24" s="1">
         <v>38437.852083333331</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1816,7 +1821,7 @@
         <v>20242</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1">
         <v>38437.849305555559</v>
@@ -1825,25 +1830,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G25" s="1">
         <v>38437.849305555559</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1851,7 +1856,7 @@
         <v>20241</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1">
         <v>38437.84097222222</v>
@@ -1860,25 +1865,25 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="1">
         <v>38437.84097222222</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1886,7 +1891,7 @@
         <v>20237</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1">
         <v>38437.837500000001</v>
@@ -1895,22 +1900,22 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G27" s="1">
         <v>38437.837500000001</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1918,7 +1923,7 @@
         <v>20233</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1">
         <v>38437.824999999997</v>
@@ -1927,25 +1932,25 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1">
         <v>38437.824999999997</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J28">
         <v>1.4</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1953,7 +1958,7 @@
         <v>20229</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>38437.822916666664</v>
@@ -1962,22 +1967,22 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G29" s="1">
         <v>38437.822916666664</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1985,7 +1990,7 @@
         <v>20228</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1">
         <v>38437.822222222225</v>
@@ -1994,756 +1999,762 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="1">
         <v>38437.822222222225</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J30">
         <v>1.4</v>
       </c>
       <c r="K30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>20227</v>
+        <v>20225</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
-        <v>38437.821527777778</v>
+        <v>38437.820138888892</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1">
-        <v>38437.821527777778</v>
+        <v>38437.820138888892</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="J31">
         <v>1.4</v>
       </c>
-      <c r="K31" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>20225</v>
+        <v>20224</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>38437.820138888892</v>
+        <v>38437.819444444445</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G32" s="1">
-        <v>38437.820138888892</v>
+        <v>38437.819444444445</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32">
-        <v>1.4</v>
+        <v>92</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>20224</v>
+        <v>20221</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
-        <v>38437.819444444445</v>
+        <v>38437.818055555559</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1">
-        <v>38437.819444444445</v>
+        <v>38437.818055555559</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" t="s">
-        <v>142</v>
+        <v>176</v>
+      </c>
+      <c r="J33">
+        <v>1.4</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>20221</v>
+        <v>20220</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>38437.818055555559</v>
+        <v>38437.817361111112</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1">
-        <v>38437.818055555559</v>
+        <v>38437.817361111112</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J34">
         <v>1.4</v>
       </c>
+      <c r="K34" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>20220</v>
+        <v>20217</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1">
-        <v>38437.817361111112</v>
+        <v>38437.815972222219</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1">
-        <v>38437.817361111112</v>
+        <v>38437.815972222219</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J35">
         <v>1.4</v>
       </c>
       <c r="K35" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>20219</v>
+        <v>20213</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1">
-        <v>38437.817361111112</v>
+        <v>38437.813194444447</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1">
-        <v>38437.817361111112</v>
+        <v>38437.813194444447</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>20217</v>
+        <v>20212</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1">
-        <v>38437.815972222219</v>
+        <v>38437.813194444447</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1">
-        <v>38437.815972222219</v>
+        <v>38437.813194444447</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37">
-        <v>1.4</v>
+        <v>53</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>20213</v>
+        <v>20207</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1">
-        <v>38437.813194444447</v>
+        <v>38437.798611111109</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1">
-        <v>38437.813194444447</v>
+        <v>38437.798611111109</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>20212</v>
+        <v>20197</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1">
-        <v>38437.813194444447</v>
+        <v>38437.792361111111</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1">
-        <v>38437.813194444447</v>
+        <v>38437.792361111111</v>
       </c>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
+        <v>97</v>
+      </c>
+      <c r="J39">
+        <v>1.4</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>20207</v>
+        <v>20191</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1">
-        <v>38437.798611111109</v>
+        <v>38437.718055555553</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1">
-        <v>38437.798611111109</v>
+        <v>38437.718055555553</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>113</v>
+      </c>
+      <c r="K40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>20197</v>
+        <v>20190</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1">
-        <v>38437.792361111111</v>
+        <v>38437.717361111114</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1">
-        <v>38437.792361111111</v>
+        <v>38437.717361111114</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
-      </c>
-      <c r="J41">
-        <v>1.4</v>
+        <v>123</v>
+      </c>
+      <c r="J41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20191</v>
+        <v>20189</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1">
-        <v>38437.718055555553</v>
+        <v>38437.714583333334</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G42" s="1">
-        <v>38437.718055555553</v>
+        <v>38437.714583333334</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J42" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>20190</v>
+        <v>20183</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1">
-        <v>38437.717361111114</v>
+        <v>38437.705555555556</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1">
-        <v>38437.717361111114</v>
+        <v>38437.705555555556</v>
       </c>
       <c r="H43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>143</v>
+      </c>
+      <c r="K43" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>20189</v>
+        <v>20182</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>38437.714583333334</v>
+        <v>38437.704861111109</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G44" s="1">
-        <v>38437.714583333334</v>
+        <v>38437.704861111109</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s">
         <v>163</v>
       </c>
+      <c r="K44" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>20183</v>
+        <v>20181</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1">
-        <v>38437.705555555556</v>
+        <v>38437.70416666667</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G45" s="1">
-        <v>38437.705555555556</v>
+        <v>38437.70416666667</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>20182</v>
+        <v>20180</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1">
-        <v>38437.704861111109</v>
+        <v>38437.703472222223</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G46" s="1">
-        <v>38437.704861111109</v>
+        <v>38437.703472222223</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
-      </c>
-      <c r="K46" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>20181</v>
+        <v>20117</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
-        <v>38437.70416666667</v>
+        <v>38433.997916666667</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G47" s="1">
-        <v>38437.70416666667</v>
+        <v>38433.997916666667</v>
       </c>
       <c r="H47" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J47" t="s">
-        <v>163</v>
-      </c>
-      <c r="K47" t="s">
-        <v>146</v>
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>20180</v>
+        <v>20116</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
-        <v>38437.703472222223</v>
+        <v>38433.996527777781</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G48" s="1">
-        <v>38437.703472222223</v>
+        <v>38433.996527777781</v>
       </c>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J48" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>20117</v>
+        <v>20115</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1">
-        <v>38433.997916666667</v>
+        <v>38433.995833333334</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1">
-        <v>38433.997916666667</v>
+        <v>38433.995833333334</v>
       </c>
       <c r="H49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>20116</v>
+        <v>20114</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>38433.996527777781</v>
+        <v>38433.995138888888</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G50" s="1">
-        <v>38433.996527777781</v>
+        <v>38433.995138888888</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>164</v>
+      </c>
+      <c r="K50" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>20115</v>
+        <v>20113</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>38433.995833333334</v>
+        <v>38433.994444444441</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G51" s="1">
-        <v>38433.995833333334</v>
+        <v>38433.994444444441</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>20114</v>
+        <v>20112</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>38433.995138888888</v>
+        <v>38433.993750000001</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G52" s="1">
-        <v>38433.995138888888</v>
+        <v>38433.993750000001</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s">
         <v>148</v>
@@ -2751,608 +2762,596 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>20113</v>
+        <v>20105</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>38433.994444444441</v>
+        <v>38433.989583333336</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G53" s="1">
-        <v>38433.994444444441</v>
+        <v>38433.989583333336</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" t="s">
-        <v>165</v>
-      </c>
-      <c r="K53" t="s">
-        <v>166</v>
+        <v>45</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>20112</v>
+        <v>20104</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
-        <v>38433.993750000001</v>
+        <v>38433.988888888889</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G54" s="1">
-        <v>38433.993750000001</v>
+        <v>38433.988888888889</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K54" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>20108</v>
+        <v>20103</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
-        <v>38433.991666666669</v>
+        <v>38433.988194444442</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G55" s="1">
-        <v>38433.991666666669</v>
+        <v>38433.988194444442</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
+        <v>97</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
       </c>
       <c r="K55" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>20107</v>
+        <v>20101</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1">
-        <v>38433.990972222222</v>
+        <v>38433.986111111109</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G56" s="1">
-        <v>38433.990972222222</v>
+        <v>38433.986111111109</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56">
-        <v>1.4</v>
-      </c>
-      <c r="K56" t="s">
-        <v>169</v>
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>20105</v>
+        <v>20100</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1">
-        <v>38433.989583333336</v>
+        <v>38433.98541666667</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G57" s="1">
-        <v>38433.989583333336</v>
+        <v>38433.98541666667</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>162</v>
+      </c>
+      <c r="K57" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>20104</v>
+        <v>20099</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1">
-        <v>38433.988888888889</v>
+        <v>38433.98541666667</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G58" s="1">
-        <v>38433.988888888889</v>
+        <v>38433.98541666667</v>
       </c>
       <c r="H58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" t="s">
-        <v>167</v>
+        <v>47</v>
+      </c>
+      <c r="J58">
+        <v>1.4</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>20103</v>
+        <v>20098</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1">
-        <v>38433.988194444442</v>
+        <v>38433.984722222223</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G59" s="1">
-        <v>38433.988194444442</v>
+        <v>38433.984722222223</v>
       </c>
       <c r="H59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="J59" t="s">
+        <v>169</v>
       </c>
       <c r="K59" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>20101</v>
+        <v>20097</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1">
-        <v>38433.986111111109</v>
+        <v>38433.982638888891</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G60" s="1">
-        <v>38433.986111111109</v>
+        <v>38433.982638888891</v>
       </c>
       <c r="H60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" t="s">
-        <v>170</v>
+        <v>45</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>20100</v>
+        <v>20096</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1">
-        <v>38433.98541666667</v>
+        <v>38433.981944444444</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G61" s="1">
-        <v>38433.98541666667</v>
+        <v>38433.981944444444</v>
       </c>
       <c r="H61" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="J61" t="s">
-        <v>163</v>
-      </c>
-      <c r="K61" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>20099</v>
+        <v>20095</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C62" s="1">
-        <v>38433.98541666667</v>
+        <v>38433.981249999997</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G62" s="1">
-        <v>38433.98541666667</v>
+        <v>38433.981249999997</v>
       </c>
       <c r="H62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
-      </c>
-      <c r="J62">
-        <v>1.4</v>
+        <v>47</v>
+      </c>
+      <c r="J62" t="s">
+        <v>171</v>
       </c>
       <c r="K62" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>20098</v>
+        <v>20094</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C63" s="1">
-        <v>38433.984722222223</v>
+        <v>38433.980555555558</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G63" s="1">
-        <v>38433.984722222223</v>
+        <v>38433.980555555558</v>
       </c>
       <c r="H63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="J63" t="s">
-        <v>172</v>
-      </c>
-      <c r="K63" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>20097</v>
+        <v>20093</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C64" s="1">
-        <v>38433.982638888891</v>
+        <v>38433.979861111111</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G64" s="1">
-        <v>38433.982638888891</v>
+        <v>38433.979861111111</v>
       </c>
       <c r="H64" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J64">
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>151</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>20096</v>
+        <v>20092</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C65" s="1">
-        <v>38433.981944444444</v>
+        <v>38433.979166666664</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G65" s="1">
-        <v>38433.981944444444</v>
+        <v>38433.979166666664</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>20095</v>
+        <v>20091</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1">
-        <v>38433.981249999997</v>
+        <v>38433.978472222225</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G66" s="1">
-        <v>38433.981249999997</v>
+        <v>38433.978472222225</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
-      </c>
-      <c r="J66" t="s">
-        <v>174</v>
-      </c>
-      <c r="K66" t="s">
-        <v>171</v>
+        <v>78</v>
+      </c>
+      <c r="J66">
+        <v>1.4</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>20094</v>
+        <v>20090</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C67" s="1">
-        <v>38433.980555555558</v>
+        <v>38433.977777777778</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G67" s="1">
-        <v>38433.980555555558</v>
+        <v>38433.977777777778</v>
       </c>
       <c r="H67" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J67" t="s">
-        <v>144</v>
+        <v>81</v>
+      </c>
+      <c r="J67">
+        <v>1.4</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>20093</v>
+        <v>20089</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1">
-        <v>38433.979861111111</v>
+        <v>38433.977083333331</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G68" s="1">
-        <v>38433.979861111111</v>
+        <v>38433.977083333331</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
-      </c>
-      <c r="J68">
-        <v>1.4</v>
+        <v>137</v>
+      </c>
+      <c r="J68" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>20092</v>
+        <v>20088</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1">
-        <v>38433.979166666664</v>
+        <v>38433.976388888892</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G69" s="1">
-        <v>38433.979166666664</v>
+        <v>38433.976388888892</v>
       </c>
       <c r="H69" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-      <c r="J69" t="s">
-        <v>174</v>
+        <v>37</v>
+      </c>
+      <c r="J69">
+        <v>1.4</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>20091</v>
+        <v>20087</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C70" s="1">
-        <v>38433.978472222225</v>
+        <v>38433.974999999999</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G70" s="1">
-        <v>38433.978472222225</v>
+        <v>38433.974999999999</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="J70">
         <v>1.4</v>
@@ -3360,585 +3359,458 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>20090</v>
+        <v>20086</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
-        <v>38433.977777777778</v>
+        <v>38433.972222222219</v>
       </c>
       <c r="D71">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G71" s="1">
-        <v>38433.977777777778</v>
+        <v>38433.972222222219</v>
       </c>
       <c r="H71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="J71">
-        <v>1.4</v>
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>20089</v>
+        <v>20002</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1">
-        <v>38433.977083333331</v>
+        <v>38428.881944444445</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G72" s="1">
-        <v>38433.977083333331</v>
+        <v>38428.881944444445</v>
       </c>
       <c r="H72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>138</v>
-      </c>
-      <c r="J72" t="s">
-        <v>175</v>
+        <v>39</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>20088</v>
+        <v>20000</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
-        <v>38433.976388888892</v>
+        <v>38428.880555555559</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G73" s="1">
-        <v>38433.976388888892</v>
+        <v>38428.880555555559</v>
       </c>
       <c r="H73" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J73">
         <v>1.4</v>
       </c>
+      <c r="K73" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>20087</v>
+        <v>19999</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1">
-        <v>38433.974999999999</v>
+        <v>38428.880555555559</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G74" s="1">
-        <v>38433.974999999999</v>
+        <v>38428.880555555559</v>
       </c>
       <c r="H74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I74" t="s">
-        <v>7</v>
-      </c>
-      <c r="J74">
-        <v>1.4</v>
+        <v>64</v>
+      </c>
+      <c r="J74" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>20086</v>
+        <v>19998</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
-        <v>38433.972222222219</v>
+        <v>38428.879861111112</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G75" s="1">
-        <v>38433.972222222219</v>
+        <v>38428.879861111112</v>
       </c>
       <c r="H75" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>20002</v>
+        <v>19997</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1">
-        <v>38428.881944444445</v>
+        <v>38428.879166666666</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G76" s="1">
-        <v>38428.881944444445</v>
+        <v>38428.879166666666</v>
       </c>
       <c r="H76" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K76" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>20000</v>
+        <v>19994</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
-        <v>38428.880555555559</v>
+        <v>38428.877083333333</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G77" s="1">
-        <v>38428.880555555559</v>
+        <v>38428.877083333333</v>
       </c>
       <c r="H77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I77" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="J77">
         <v>1.4</v>
       </c>
       <c r="K77" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>19999</v>
+        <v>19993</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1">
-        <v>38428.880555555559</v>
+        <v>38428.876388888886</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G78" s="1">
-        <v>38428.880555555559</v>
+        <v>38428.876388888886</v>
       </c>
       <c r="H78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>19998</v>
+        <v>19992</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C79" s="1">
-        <v>38428.879861111112</v>
+        <v>38428.851388888892</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G79" s="1">
-        <v>38428.879861111112</v>
+        <v>38428.851388888892</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" t="s">
-        <v>17</v>
+        <v>137</v>
+      </c>
+      <c r="J79">
+        <v>1.4</v>
       </c>
       <c r="K79" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>19997</v>
+        <v>19990</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
-        <v>38428.879166666666</v>
+        <v>38428.847916666666</v>
       </c>
       <c r="D80">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G80" s="1">
-        <v>38428.879166666666</v>
+        <v>38428.847916666666</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I80" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J80">
         <v>1.4</v>
       </c>
       <c r="K80" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>19994</v>
+        <v>19379</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1">
-        <v>38428.877083333333</v>
+        <v>38394.956250000003</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G81" s="1">
-        <v>38428.877083333333</v>
+        <v>38435.717361111114</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I81" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>1.4</v>
       </c>
       <c r="K81" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>19993</v>
+        <v>19270</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C82" s="1">
-        <v>38428.876388888886</v>
+        <v>38392.415972222225</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G82" s="1">
-        <v>38428.876388888886</v>
+        <v>38435.71875</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="K82" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>19992</v>
+        <v>19268</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1">
-        <v>38428.851388888892</v>
+        <v>38392.354166666664</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G83" s="1">
-        <v>38428.851388888892</v>
+        <v>38433.711111111108</v>
       </c>
       <c r="H83" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
-      </c>
-      <c r="J83">
-        <v>1.4</v>
+        <v>137</v>
+      </c>
+      <c r="J83" t="s">
+        <v>162</v>
       </c>
       <c r="K83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>19990</v>
-      </c>
-      <c r="B84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="1">
-        <v>38428.847916666666</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" s="1">
-        <v>38428.847916666666</v>
-      </c>
-      <c r="H84" t="s">
-        <v>49</v>
-      </c>
-      <c r="I84" t="s">
-        <v>179</v>
-      </c>
-      <c r="J84">
-        <v>1.4</v>
-      </c>
-      <c r="K84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>19379</v>
-      </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="1">
-        <v>38394.956250000003</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" t="s">
-        <v>137</v>
-      </c>
-      <c r="G85" s="1">
-        <v>38435.717361111114</v>
-      </c>
-      <c r="H85" t="s">
-        <v>138</v>
-      </c>
-      <c r="I85" t="s">
-        <v>138</v>
-      </c>
-      <c r="J85">
-        <v>1.4</v>
-      </c>
-      <c r="K85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>19270</v>
-      </c>
-      <c r="B86" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="1">
-        <v>38392.415972222225</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" s="1">
-        <v>38435.71875</v>
-      </c>
-      <c r="H86" t="s">
-        <v>138</v>
-      </c>
-      <c r="I86" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" t="s">
-        <v>163</v>
-      </c>
-      <c r="K86" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87">
-        <v>19268</v>
-      </c>
-      <c r="B87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="1">
-        <v>38392.354166666664</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>136</v>
-      </c>
-      <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="1">
-        <v>38433.711111111108</v>
-      </c>
-      <c r="H87" t="s">
-        <v>138</v>
-      </c>
-      <c r="I87" t="s">
-        <v>138</v>
-      </c>
-      <c r="J87" t="s">
-        <v>163</v>
-      </c>
-      <c r="K87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K87"/>
+  <autoFilter ref="A1:K83"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
